--- a/excel/ganhou/ganhou.xlsx
+++ b/excel/ganhou/ganhou.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinch\git\AbondonedGirl\ganhou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinch\git\AbondonedGirl\excel\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0306C054-FFD3-406D-A353-326EE960B32F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDECE82-5CC2-42FC-B234-3DDC94CFFC44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
@@ -4682,7 +4682,7 @@
   <dimension ref="A1:AP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5872,7 +5872,7 @@
         <v>20120</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="H20:V20" si="13">H$20+I$18</f>
+        <f t="shared" ref="I20:V20" si="13">H$20+I$18</f>
         <v>20970</v>
       </c>
       <c r="J20">

--- a/excel/ganhou/ganhou.xlsx
+++ b/excel/ganhou/ganhou.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinch\git\AbondonedGirl\excel\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDECE82-5CC2-42FC-B234-3DDC94CFFC44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC1AFA5-B729-4B88-9CE5-1A036C4D9A93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
+    <workbookView xWindow="-17388" yWindow="-8976" windowWidth="17496" windowHeight="30336" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1888,6 +1888,12 @@
                 <c:pt idx="6">
                   <c:v>180</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1928,24 +1934,6 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -2734,6 +2722,9 @@
                 <c:pt idx="6">
                   <c:v>-300</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2789,7 +2780,7 @@
                   <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-100</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-200</c:v>
@@ -2849,25 +2840,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="6">
-                  <c:v>-25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2915,37 +2888,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1820</c:v>
+                  <c:v>1770</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1220</c:v>
+                  <c:v>1170</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1120</c:v>
+                  <c:v>1070</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1120</c:v>
+                  <c:v>1070</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>795</c:v>
+                  <c:v>755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>850</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1200</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>900</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>700</c:v>
+                  <c:v>-810</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>600</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>690</c:v>
@@ -3019,61 +2992,61 @@
                   <c:v>14029</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15849</c:v>
+                  <c:v>15799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17079</c:v>
+                  <c:v>17029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18199</c:v>
+                  <c:v>18099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19319</c:v>
+                  <c:v>19169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20164</c:v>
+                  <c:v>20124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20970</c:v>
+                  <c:v>20990</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21470</c:v>
+                  <c:v>21660</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22670</c:v>
+                  <c:v>22850</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23570</c:v>
+                  <c:v>23740</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24270</c:v>
+                  <c:v>22930</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24870</c:v>
+                  <c:v>23520</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25560</c:v>
+                  <c:v>24210</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26250</c:v>
+                  <c:v>24900</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26940</c:v>
+                  <c:v>25590</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27630</c:v>
+                  <c:v>26280</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28320</c:v>
+                  <c:v>26970</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29010</c:v>
+                  <c:v>27660</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29700</c:v>
+                  <c:v>28350</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30390</c:v>
+                  <c:v>29040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4682,7 +4655,7 @@
   <dimension ref="A1:AP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5069,7 +5042,12 @@
       <c r="H4">
         <v>180</v>
       </c>
-      <c r="J4" s="27"/>
+      <c r="I4">
+        <v>180</v>
+      </c>
+      <c r="J4" s="27">
+        <v>180</v>
+      </c>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -5083,24 +5061,6 @@
         <v>50</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
@@ -5605,7 +5565,9 @@
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="M15" s="28">
+        <v>-1500</v>
+      </c>
       <c r="N15" s="27"/>
     </row>
     <row r="16" spans="1:42">
@@ -5627,7 +5589,7 @@
         <v>-100</v>
       </c>
       <c r="I16" s="20">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J16" s="28">
         <v>-200</v>
@@ -5655,26 +5617,14 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <v>-25</v>
-      </c>
-      <c r="I17" s="3">
-        <v>10</v>
-      </c>
-      <c r="J17" s="3">
-        <v>10</v>
-      </c>
-      <c r="K17" s="3">
-        <v>10</v>
-      </c>
-      <c r="L17" s="3">
-        <v>10</v>
-      </c>
-      <c r="M17" s="3">
-        <v>10</v>
-      </c>
-      <c r="N17" s="3">
-        <v>10</v>
-      </c>
+        <v>-15</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:22" s="23" customFormat="1">
       <c r="A18" s="22" t="s">
@@ -5686,47 +5636,47 @@
       </c>
       <c r="D18" s="23">
         <f>SUM(D3:D17)</f>
-        <v>1820</v>
+        <v>1770</v>
       </c>
       <c r="E18" s="23">
         <f t="shared" ref="E18:N18" si="4">SUM(E3:E17)</f>
-        <v>1220</v>
+        <v>1170</v>
       </c>
       <c r="F18" s="23">
         <f t="shared" si="4"/>
-        <v>1120</v>
+        <v>1070</v>
       </c>
       <c r="G18" s="23">
         <f t="shared" si="4"/>
-        <v>1120</v>
+        <v>1070</v>
       </c>
       <c r="H18" s="23">
         <f t="shared" si="4"/>
-        <v>795</v>
+        <v>755</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="4"/>
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="J18" s="29">
         <f t="shared" si="4"/>
-        <v>500</v>
+        <v>670</v>
       </c>
       <c r="K18" s="29">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="L18" s="29">
         <f t="shared" si="4"/>
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="M18" s="29">
         <f t="shared" si="4"/>
-        <v>700</v>
+        <v>-810</v>
       </c>
       <c r="N18" s="29">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="O18" s="23">
         <f>SUM(O3:O17)</f>
@@ -5774,79 +5724,79 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" ref="D19" si="11">C$19+D18</f>
-        <v>15849</v>
+        <v>15799</v>
       </c>
       <c r="E19" s="3">
         <f>D$20+E18</f>
-        <v>17079</v>
+        <v>17029</v>
       </c>
       <c r="F19" s="3">
         <f>E$20+F18</f>
-        <v>18199</v>
+        <v>18099</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" ref="G19:V19" si="12">F$20+G18</f>
-        <v>19319</v>
+        <v>19169</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="12"/>
-        <v>20164</v>
+        <v>20124</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="12"/>
-        <v>20970</v>
+        <v>20990</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="12"/>
-        <v>21470</v>
+        <v>21660</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="12"/>
-        <v>22670</v>
+        <v>22850</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="12"/>
-        <v>23570</v>
+        <v>23740</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="12"/>
-        <v>24270</v>
+        <v>22930</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="12"/>
-        <v>24870</v>
+        <v>23520</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="12"/>
-        <v>25560</v>
+        <v>24210</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="12"/>
-        <v>26250</v>
+        <v>24900</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="12"/>
-        <v>26940</v>
+        <v>25590</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="12"/>
-        <v>27630</v>
+        <v>26280</v>
       </c>
       <c r="S19" s="3">
         <f t="shared" si="12"/>
-        <v>28320</v>
+        <v>26970</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="12"/>
-        <v>29010</v>
+        <v>27660</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" si="12"/>
-        <v>29700</v>
+        <v>28350</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" si="12"/>
-        <v>30390</v>
+        <v>29040</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -5858,11 +5808,11 @@
       </c>
       <c r="E20">
         <f>D$20+E$18</f>
-        <v>17079</v>
+        <v>17029</v>
       </c>
       <c r="F20">
         <f>E$20+F$18</f>
-        <v>18199</v>
+        <v>18099</v>
       </c>
       <c r="G20">
         <f>19619-250</f>
@@ -5872,60 +5822,59 @@
         <v>20120</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:V20" si="13">H$20+I$18</f>
-        <v>20970</v>
+        <v>20990</v>
       </c>
       <c r="J20">
-        <f t="shared" si="13"/>
-        <v>21470</v>
+        <f t="shared" ref="I20:V20" si="13">I$20+J$18</f>
+        <v>21660</v>
       </c>
       <c r="K20">
         <f t="shared" si="13"/>
-        <v>22670</v>
+        <v>22850</v>
       </c>
       <c r="L20">
         <f t="shared" si="13"/>
-        <v>23570</v>
+        <v>23740</v>
       </c>
       <c r="M20">
         <f t="shared" si="13"/>
-        <v>24270</v>
+        <v>22930</v>
       </c>
       <c r="N20">
         <f t="shared" si="13"/>
-        <v>24870</v>
+        <v>23520</v>
       </c>
       <c r="O20">
         <f t="shared" si="13"/>
-        <v>25560</v>
+        <v>24210</v>
       </c>
       <c r="P20">
         <f t="shared" si="13"/>
-        <v>26250</v>
+        <v>24900</v>
       </c>
       <c r="Q20">
         <f t="shared" si="13"/>
-        <v>26940</v>
+        <v>25590</v>
       </c>
       <c r="R20">
         <f t="shared" si="13"/>
-        <v>27630</v>
+        <v>26280</v>
       </c>
       <c r="S20">
         <f t="shared" si="13"/>
-        <v>28320</v>
+        <v>26970</v>
       </c>
       <c r="T20">
         <f t="shared" si="13"/>
-        <v>29010</v>
+        <v>27660</v>
       </c>
       <c r="U20">
         <f t="shared" si="13"/>
-        <v>29700</v>
+        <v>28350</v>
       </c>
       <c r="V20">
         <f t="shared" si="13"/>
-        <v>30390</v>
+        <v>29040</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -5938,7 +5887,7 @@
       </c>
       <c r="D21">
         <f t="shared" ref="D21:V21" si="14">(D$20-D$19)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <f t="shared" si="14"/>
@@ -5950,15 +5899,11 @@
       </c>
       <c r="G21">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H21">
         <f t="shared" si="14"/>
-        <v>-44</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="J21">
         <f t="shared" si="14"/>

--- a/excel/ganhou/ganhou.xlsx
+++ b/excel/ganhou/ganhou.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinch\git\AbondonedGirl\excel\ganhou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\excel\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC51005-3394-48A6-81CD-9F14AE793037}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D23DC8E-4CA3-4FBD-8BA4-15EA9B18C240}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
   <sheets>
     <sheet name="元宝計算" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>同盟ログイン</t>
     <rPh sb="0" eb="2">
@@ -378,6 +378,33 @@
   </si>
   <si>
     <t>所持数</t>
+  </si>
+  <si>
+    <t>銀貨購入</t>
+    <rPh sb="0" eb="2">
+      <t>ギンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>願い返し</t>
+    <rPh sb="0" eb="1">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパーパック(120円)</t>
+    <rPh sb="11" eb="12">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -385,21 +412,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="169" formatCode="mm/dd\(aaa\)"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="mm/dd\(aaa\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -504,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -531,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -546,19 +573,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -878,30 +905,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A45119-1C6C-451A-9E0A-5F25E95013BC}">
-  <dimension ref="A1:AP23"/>
+  <dimension ref="A1:AP27"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection sqref="A1:AM1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="40" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="29" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="40" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1020,7 +1047,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="4" customFormat="1">
+    <row r="2" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1245,7 +1272,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -1272,14 +1299,14 @@
         <v>180</v>
       </c>
       <c r="J4" s="14">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -1293,7 +1320,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
@@ -1326,7 +1353,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1472,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1538,7 +1565,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1670,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1706,7 +1733,7 @@
       </c>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1730,7 +1757,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1754,7 +1781,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1773,7 +1800,7 @@
       <c r="M14" s="15"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1796,7 +1823,7 @@
       </c>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -1818,7 +1845,7 @@
         <v>-200</v>
       </c>
       <c r="J16" s="15">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K16" s="15">
         <v>-100</v>
@@ -1833,364 +1860,430 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="15">
+        <v>853</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="15">
+        <v>60</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
         <v>-15</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:22" s="10" customFormat="1">
-      <c r="A18" s="9" t="s">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="10">
-        <f>SUM(C3:C17)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="10">
-        <f>SUM(D3:D17)</f>
+      <c r="C22" s="10">
+        <f>SUM(C3:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <f>SUM(D3:D21)</f>
         <v>1770</v>
       </c>
-      <c r="E18" s="10">
-        <f t="shared" ref="E18:N18" si="4">SUM(E3:E17)</f>
+      <c r="E22" s="10">
+        <f t="shared" ref="E22:N22" si="4">SUM(E3:E21)</f>
         <v>1170</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F22" s="10">
         <f t="shared" si="4"/>
         <v>1070</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G22" s="10">
         <f t="shared" si="4"/>
         <v>1070</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H22" s="10">
         <f t="shared" si="4"/>
         <v>755</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I22" s="10">
         <f t="shared" si="4"/>
         <v>870</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J22" s="16">
         <f t="shared" si="4"/>
-        <v>670</v>
-      </c>
-      <c r="K18" s="16">
+        <v>1503</v>
+      </c>
+      <c r="K22" s="16">
         <f t="shared" si="4"/>
         <v>1190</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L22" s="16">
         <f t="shared" si="4"/>
         <v>890</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M22" s="16">
         <f t="shared" si="4"/>
         <v>-810</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N22" s="16">
         <f t="shared" si="4"/>
         <v>590</v>
       </c>
-      <c r="O18" s="10">
-        <f>SUM(O3:O17)</f>
+      <c r="O22" s="10">
+        <f>SUM(O3:O21)</f>
         <v>690</v>
       </c>
-      <c r="P18" s="10">
-        <f>SUM(P3:P17)</f>
+      <c r="P22" s="10">
+        <f>SUM(P3:P21)</f>
         <v>690</v>
       </c>
-      <c r="Q18" s="10">
-        <f t="shared" ref="Q18" si="5">SUM(Q3:Q17)</f>
+      <c r="Q22" s="10">
+        <f t="shared" ref="Q22" si="5">SUM(Q3:Q21)</f>
         <v>690</v>
       </c>
-      <c r="R18" s="10">
-        <f t="shared" ref="R18" si="6">SUM(R3:R17)</f>
+      <c r="R22" s="10">
+        <f t="shared" ref="R22" si="6">SUM(R3:R21)</f>
         <v>690</v>
       </c>
-      <c r="S18" s="10">
-        <f t="shared" ref="S18" si="7">SUM(S3:S17)</f>
+      <c r="S22" s="10">
+        <f t="shared" ref="S22" si="7">SUM(S3:S21)</f>
         <v>690</v>
       </c>
-      <c r="T18" s="10">
-        <f t="shared" ref="T18" si="8">SUM(T3:T17)</f>
+      <c r="T22" s="10">
+        <f t="shared" ref="T22" si="8">SUM(T3:T21)</f>
         <v>690</v>
       </c>
-      <c r="U18" s="10">
-        <f t="shared" ref="U18" si="9">SUM(U3:U17)</f>
+      <c r="U22" s="10">
+        <f t="shared" ref="U22" si="9">SUM(U3:U21)</f>
         <v>690</v>
       </c>
-      <c r="V18" s="10">
-        <f t="shared" ref="V18" si="10">SUM(V3:V17)</f>
+      <c r="V22" s="10">
+        <f t="shared" ref="V22" si="10">SUM(V3:V21)</f>
         <v>690</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="2" customFormat="1">
-      <c r="A19" s="5" t="s">
+    <row r="23" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B23" s="2">
         <v>14029</v>
       </c>
-      <c r="C19" s="2">
-        <f>B$19+C18</f>
+      <c r="C23" s="2">
+        <f>B$23+C22</f>
         <v>14029</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" ref="D19" si="11">C$19+D18</f>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23" si="11">C$23+D22</f>
         <v>15799</v>
       </c>
-      <c r="E19" s="2">
-        <f>D$20+E18</f>
+      <c r="E23" s="2">
+        <f>D$24+E22</f>
         <v>17029</v>
       </c>
-      <c r="F19" s="2">
-        <f>E$20+F18</f>
+      <c r="F23" s="2">
+        <f>E$24+F22</f>
         <v>18099</v>
       </c>
-      <c r="G19" s="2">
-        <f t="shared" ref="G19:V19" si="12">F$20+G18</f>
+      <c r="G23" s="2">
+        <f t="shared" ref="G23:V23" si="12">F$24+G22</f>
         <v>19169</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H23" s="2">
         <f t="shared" si="12"/>
         <v>20124</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I23" s="2">
         <f t="shared" si="12"/>
         <v>20990</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J23" s="2">
         <f t="shared" si="12"/>
-        <v>21660</v>
-      </c>
-      <c r="K19" s="2">
+        <v>22493</v>
+      </c>
+      <c r="K23" s="2">
         <f t="shared" si="12"/>
-        <v>22850</v>
-      </c>
-      <c r="L19" s="2">
+        <v>23683</v>
+      </c>
+      <c r="L23" s="2">
         <f t="shared" si="12"/>
-        <v>23740</v>
-      </c>
-      <c r="M19" s="2">
+        <v>24573</v>
+      </c>
+      <c r="M23" s="2">
         <f t="shared" si="12"/>
-        <v>22930</v>
-      </c>
-      <c r="N19" s="2">
+        <v>23763</v>
+      </c>
+      <c r="N23" s="2">
         <f t="shared" si="12"/>
-        <v>23520</v>
-      </c>
-      <c r="O19" s="2">
+        <v>24353</v>
+      </c>
+      <c r="O23" s="2">
         <f t="shared" si="12"/>
-        <v>24210</v>
-      </c>
-      <c r="P19" s="2">
+        <v>25043</v>
+      </c>
+      <c r="P23" s="2">
         <f t="shared" si="12"/>
-        <v>24900</v>
-      </c>
-      <c r="Q19" s="2">
+        <v>25733</v>
+      </c>
+      <c r="Q23" s="2">
         <f t="shared" si="12"/>
-        <v>25590</v>
-      </c>
-      <c r="R19" s="2">
+        <v>26423</v>
+      </c>
+      <c r="R23" s="2">
         <f t="shared" si="12"/>
-        <v>26280</v>
-      </c>
-      <c r="S19" s="2">
+        <v>27113</v>
+      </c>
+      <c r="S23" s="2">
         <f t="shared" si="12"/>
-        <v>26970</v>
-      </c>
-      <c r="T19" s="2">
+        <v>27803</v>
+      </c>
+      <c r="T23" s="2">
         <f t="shared" si="12"/>
-        <v>27660</v>
-      </c>
-      <c r="U19" s="2">
+        <v>28493</v>
+      </c>
+      <c r="U23" s="2">
         <f t="shared" si="12"/>
-        <v>28350</v>
-      </c>
-      <c r="V19" s="2">
+        <v>29183</v>
+      </c>
+      <c r="V23" s="2">
         <f t="shared" si="12"/>
-        <v>29040</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="5" t="s">
+        <v>29873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>15859</v>
       </c>
-      <c r="E20">
-        <f>D$20+E$18</f>
+      <c r="E24">
+        <f>D$24+E$22</f>
         <v>17029</v>
       </c>
-      <c r="F20">
-        <f>E$20+F$18</f>
+      <c r="F24">
+        <f>E$24+F$22</f>
         <v>18099</v>
       </c>
-      <c r="G20">
+      <c r="G24">
         <f>19619-250</f>
         <v>19369</v>
       </c>
-      <c r="H20">
+      <c r="H24">
         <v>20120</v>
       </c>
-      <c r="I20">
+      <c r="I24">
         <v>20990</v>
       </c>
-      <c r="J20">
-        <f t="shared" ref="J20:V20" si="13">I$20+J$18</f>
-        <v>21660</v>
-      </c>
-      <c r="K20">
+      <c r="J24">
+        <f t="shared" ref="J24:V24" si="13">I$24+J$22</f>
+        <v>22493</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="13"/>
-        <v>22850</v>
-      </c>
-      <c r="L20">
+        <v>23683</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="13"/>
-        <v>23740</v>
-      </c>
-      <c r="M20">
+        <v>24573</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="13"/>
-        <v>22930</v>
-      </c>
-      <c r="N20">
+        <v>23763</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="13"/>
-        <v>23520</v>
-      </c>
-      <c r="O20">
+        <v>24353</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="13"/>
-        <v>24210</v>
-      </c>
-      <c r="P20">
+        <v>25043</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="13"/>
-        <v>24900</v>
-      </c>
-      <c r="Q20">
+        <v>25733</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="13"/>
-        <v>25590</v>
-      </c>
-      <c r="R20">
+        <v>26423</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="13"/>
-        <v>26280</v>
-      </c>
-      <c r="S20">
+        <v>27113</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="13"/>
-        <v>26970</v>
-      </c>
-      <c r="T20">
+        <v>27803</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="13"/>
-        <v>27660</v>
-      </c>
-      <c r="U20">
+        <v>28493</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="13"/>
-        <v>28350</v>
-      </c>
-      <c r="V20">
+        <v>29183</v>
+      </c>
+      <c r="V24">
         <f t="shared" si="13"/>
-        <v>29040</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="5" t="s">
+        <v>29873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C21">
-        <f>(C$20-C$19)</f>
+      <c r="C25">
+        <f>(C$24-C$23)</f>
         <v>-14029</v>
       </c>
-      <c r="D21">
-        <f t="shared" ref="D21:V21" si="14">(D$20-D$19)</f>
+      <c r="D25">
+        <f t="shared" ref="D25:V25" si="14">(D$24-D$23)</f>
         <v>60</v>
       </c>
-      <c r="E21">
+      <c r="E25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="G25">
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="H21">
+      <c r="H25">
         <f t="shared" si="14"/>
         <v>-4</v>
       </c>
-      <c r="J21">
+      <c r="J25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K21">
+      <c r="K25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L21">
+      <c r="L25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M21">
+      <c r="M25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="N25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O21">
+      <c r="O25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P21">
+      <c r="P25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q21">
+      <c r="Q25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R21">
+      <c r="R25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S21">
+      <c r="S25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T21">
+      <c r="T25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U21">
+      <c r="U25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V21">
+      <c r="V25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
-      <c r="G22" t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
-      <c r="G23" t="s">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G27" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2209,12 +2302,12 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2225,7 +2318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2237,7 +2330,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2245,7 +2338,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2253,7 +2346,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2261,7 +2354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2269,7 +2362,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2277,7 +2370,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2285,7 +2378,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2293,7 +2386,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2301,7 +2394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2309,7 +2402,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>45</v>
       </c>
@@ -2317,7 +2410,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>50</v>
       </c>
@@ -2335,22 +2428,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF44A2E-50CE-46E9-8E9A-94BBA648205D}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="7.25" customWidth="1"/>
     <col min="3" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="33" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>41</v>
       </c>
@@ -2451,7 +2544,7 @@
         <v>44499</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1">
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>42</v>
       </c>
@@ -2550,7 +2643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>43</v>
       </c>
@@ -2578,7 +2671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>44</v>
       </c>
@@ -2588,7 +2681,7 @@
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="22" t="s">
         <v>45</v>
       </c>
@@ -2643,25 +2736,29 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="D6" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -2674,126 +2771,128 @@
       </c>
       <c r="D10">
         <f t="shared" ref="D10:AG10" si="0">C10+SUM(D2:D9)</f>
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="R10">
         <f t="shared" si="0"/>
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="V10">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="Z10">
         <f t="shared" si="0"/>
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="AB10">
         <f t="shared" si="0"/>
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="AC10">
         <f t="shared" si="0"/>
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="AD10">
         <f t="shared" si="0"/>
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="AE10">
         <f t="shared" si="0"/>
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="AF10">
         <f t="shared" si="0"/>
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="AG10">
         <f t="shared" si="0"/>
-        <v>729</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/ganhou/ganhou.xlsx
+++ b/excel/ganhou/ganhou.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\excel\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D23DC8E-4CA3-4FBD-8BA4-15EA9B18C240}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB80745D-B901-4CE2-B87B-D5846B8EA89C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
   <sheets>
     <sheet name="元宝計算" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>同盟ログイン</t>
     <rPh sb="0" eb="2">
@@ -377,9 +377,6 @@
     <t>はじめ</t>
   </si>
   <si>
-    <t>所持数</t>
-  </si>
-  <si>
     <t>銀貨購入</t>
     <rPh sb="0" eb="2">
       <t>ギンカ</t>
@@ -404,6 +401,18 @@
     <rPh sb="11" eb="12">
       <t>エン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デイリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボーナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持数予想</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -432,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +463,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,9 +594,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -588,7 +606,16 @@
     <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -907,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A45119-1C6C-451A-9E0A-5F25E95013BC}">
   <dimension ref="A1:AP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1862,7 +1889,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1881,7 +1908,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2426,10 +2453,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF44A2E-50CE-46E9-8E9A-94BBA648205D}">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2444,214 +2471,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="19">
         <v>44469</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="20">
         <v>44470</v>
       </c>
-      <c r="E1" s="21">
+      <c r="E1" s="20">
         <v>44471</v>
       </c>
-      <c r="F1" s="21">
+      <c r="F1" s="20">
         <v>44472</v>
       </c>
-      <c r="G1" s="21">
+      <c r="G1" s="20">
         <v>44473</v>
       </c>
-      <c r="H1" s="21">
+      <c r="H1" s="20">
         <v>44474</v>
       </c>
-      <c r="I1" s="20">
+      <c r="I1" s="19">
         <v>44475</v>
       </c>
-      <c r="J1" s="20">
+      <c r="J1" s="19">
         <v>44476</v>
       </c>
-      <c r="K1" s="20">
+      <c r="K1" s="19">
         <v>44477</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="19">
         <v>44478</v>
       </c>
-      <c r="M1" s="20">
+      <c r="M1" s="19">
         <v>44479</v>
       </c>
-      <c r="N1" s="20">
+      <c r="N1" s="19">
         <v>44480</v>
       </c>
-      <c r="O1" s="20">
+      <c r="O1" s="19">
         <v>44481</v>
       </c>
-      <c r="P1" s="20">
+      <c r="P1" s="19">
         <v>44482</v>
       </c>
-      <c r="Q1" s="20">
+      <c r="Q1" s="19">
         <v>44483</v>
       </c>
-      <c r="R1" s="20">
+      <c r="R1" s="19">
         <v>44484</v>
       </c>
-      <c r="S1" s="20">
+      <c r="S1" s="19">
         <v>44485</v>
       </c>
-      <c r="T1" s="20">
+      <c r="T1" s="19">
         <v>44486</v>
       </c>
-      <c r="U1" s="20">
+      <c r="U1" s="19">
         <v>44487</v>
       </c>
-      <c r="V1" s="20">
+      <c r="V1" s="19">
         <v>44488</v>
       </c>
-      <c r="W1" s="20">
+      <c r="W1" s="19">
         <v>44489</v>
       </c>
-      <c r="X1" s="20">
+      <c r="X1" s="19">
         <v>44490</v>
       </c>
-      <c r="Y1" s="20">
+      <c r="Y1" s="19">
         <v>44491</v>
       </c>
-      <c r="Z1" s="20">
+      <c r="Z1" s="19">
         <v>44492</v>
       </c>
-      <c r="AA1" s="20">
+      <c r="AA1" s="19">
         <v>44493</v>
       </c>
-      <c r="AB1" s="20">
+      <c r="AB1" s="19">
         <v>44494</v>
       </c>
-      <c r="AC1" s="20">
+      <c r="AC1" s="19">
         <v>44495</v>
       </c>
-      <c r="AD1" s="20">
+      <c r="AD1" s="19">
         <v>44496</v>
       </c>
-      <c r="AE1" s="20">
+      <c r="AE1" s="19">
         <v>44497</v>
       </c>
-      <c r="AF1" s="20">
+      <c r="AF1" s="19">
         <v>44498</v>
       </c>
-      <c r="AG1" s="20">
+      <c r="AG1" s="19">
         <v>44499</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19">
-        <v>5</v>
-      </c>
-      <c r="D2" s="19">
-        <v>5</v>
-      </c>
-      <c r="E2" s="19">
-        <v>5</v>
-      </c>
-      <c r="F2" s="19">
-        <v>5</v>
-      </c>
-      <c r="G2" s="19">
-        <v>5</v>
-      </c>
-      <c r="H2" s="19">
-        <v>5</v>
-      </c>
-      <c r="I2" s="19">
-        <v>5</v>
-      </c>
-      <c r="J2" s="19">
-        <v>5</v>
-      </c>
-      <c r="K2" s="19">
-        <v>5</v>
-      </c>
-      <c r="L2" s="19">
-        <v>5</v>
-      </c>
-      <c r="M2" s="19">
-        <v>5</v>
-      </c>
-      <c r="N2" s="19">
-        <v>5</v>
-      </c>
-      <c r="O2" s="19">
-        <v>5</v>
-      </c>
-      <c r="P2" s="19">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="19">
-        <v>5</v>
-      </c>
-      <c r="R2" s="19">
-        <v>5</v>
-      </c>
-      <c r="S2" s="19">
-        <v>5</v>
-      </c>
-      <c r="T2" s="19">
-        <v>5</v>
-      </c>
-      <c r="U2" s="19">
-        <v>5</v>
-      </c>
-      <c r="V2" s="19">
-        <v>5</v>
-      </c>
-      <c r="W2" s="19">
-        <v>5</v>
-      </c>
-      <c r="X2" s="19">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="19">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="19">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="19">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="19">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="19">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="19">
-        <v>5</v>
-      </c>
-      <c r="AE2" s="19">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="19">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="19">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18">
+        <v>5</v>
+      </c>
+      <c r="E2" s="18">
+        <v>5</v>
+      </c>
+      <c r="F2" s="18">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18">
+        <v>5</v>
+      </c>
+      <c r="H2" s="18">
+        <v>5</v>
+      </c>
+      <c r="I2" s="18">
+        <v>5</v>
+      </c>
+      <c r="J2" s="18">
+        <v>5</v>
+      </c>
+      <c r="K2" s="18">
+        <v>5</v>
+      </c>
+      <c r="L2" s="18">
+        <v>5</v>
+      </c>
+      <c r="M2" s="18">
+        <v>5</v>
+      </c>
+      <c r="N2" s="18">
+        <v>5</v>
+      </c>
+      <c r="O2" s="18">
+        <v>5</v>
+      </c>
+      <c r="P2" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>5</v>
+      </c>
+      <c r="R2" s="18">
+        <v>5</v>
+      </c>
+      <c r="S2" s="18">
+        <v>5</v>
+      </c>
+      <c r="T2" s="18">
+        <v>5</v>
+      </c>
+      <c r="U2" s="18">
+        <v>5</v>
+      </c>
+      <c r="V2" s="18">
+        <v>5</v>
+      </c>
+      <c r="W2" s="18">
+        <v>5</v>
+      </c>
+      <c r="X2" s="18">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="18">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="18">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="18">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="18">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="18">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="18">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="18">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="18">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19">
-        <v>5</v>
-      </c>
-      <c r="D3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18">
+        <v>5</v>
+      </c>
+      <c r="D3" s="18"/>
       <c r="H3">
         <v>5</v>
       </c>
@@ -2672,24 +2699,26 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18">
         <v>33</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="18"/>
       <c r="E5">
         <v>30</v>
       </c>
@@ -2737,33 +2766,140 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19">
+      <c r="A6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18">
+        <v>2</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="18">
+        <v>2</v>
+      </c>
+      <c r="G7" s="18">
+        <v>2</v>
+      </c>
+      <c r="H7" s="18">
+        <v>2</v>
+      </c>
+      <c r="I7" s="18">
+        <v>2</v>
+      </c>
+      <c r="J7" s="18">
+        <v>2</v>
+      </c>
+      <c r="K7" s="18">
+        <v>2</v>
+      </c>
+      <c r="L7" s="18">
+        <v>2</v>
+      </c>
+      <c r="M7" s="18">
+        <v>2</v>
+      </c>
+      <c r="N7" s="18">
+        <v>2</v>
+      </c>
+      <c r="O7" s="18">
+        <v>2</v>
+      </c>
+      <c r="P7" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>2</v>
+      </c>
+      <c r="R7" s="18">
+        <v>2</v>
+      </c>
+      <c r="S7" s="18">
+        <v>2</v>
+      </c>
+      <c r="T7" s="18">
+        <v>2</v>
+      </c>
+      <c r="U7" s="18">
+        <v>2</v>
+      </c>
+      <c r="V7" s="18">
+        <v>2</v>
+      </c>
+      <c r="W7" s="18">
+        <v>2</v>
+      </c>
+      <c r="X7" s="18">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="18">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="A8" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <f>B10+SUM(C2:C9)</f>
@@ -2771,124 +2907,282 @@
       </c>
       <c r="D10">
         <f t="shared" ref="D10:AG10" si="0">C10+SUM(D2:D9)</f>
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>149</v>
+        <f>D11+SUM(E2:E9)</f>
+        <v>171</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>154</v>
+        <f t="shared" ref="F10:T10" si="1">E11+SUM(F2:F9)</f>
+        <v>178</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>189</v>
+        <f t="shared" si="1"/>
+        <v>215</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>199</v>
+        <f t="shared" si="1"/>
+        <v>227</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>234</v>
+        <f t="shared" si="1"/>
+        <v>264</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>239</v>
+        <f t="shared" si="1"/>
+        <v>273</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
-        <v>279</v>
+        <f t="shared" si="1"/>
+        <v>315</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
-        <v>284</v>
+        <f t="shared" si="1"/>
+        <v>322</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
-        <v>319</v>
+        <f t="shared" si="1"/>
+        <v>359</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
-        <v>324</v>
+        <f t="shared" si="1"/>
+        <v>366</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
-        <v>364</v>
+        <f t="shared" si="1"/>
+        <v>408</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
-        <v>369</v>
+        <f t="shared" si="1"/>
+        <v>415</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>404</v>
+        <f t="shared" si="1"/>
+        <v>454</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
-        <v>414</v>
+        <f t="shared" si="1"/>
+        <v>466</v>
       </c>
       <c r="S10">
-        <f t="shared" si="0"/>
-        <v>449</v>
+        <f t="shared" si="1"/>
+        <v>503</v>
       </c>
       <c r="T10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>547</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>559</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>596</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>605</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>647</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>654</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>691</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="0"/>
+        <v>698</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="0"/>
+        <v>735</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="0"/>
+        <v>742</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="0"/>
+        <v>781</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="0"/>
+        <v>788</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="0"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>99</v>
+      </c>
+      <c r="D11">
+        <f>D$10+SUM(D12:D20)</f>
+        <v>134</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:AG11" si="2">E$10+SUM(E12:E20)</f>
+        <v>171</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>227</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>264</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>359</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>366</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>408</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
         <v>454</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>489</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="0"/>
-        <v>499</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="0"/>
-        <v>534</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="0"/>
-        <v>539</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="0"/>
-        <v>579</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="0"/>
-        <v>584</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="0"/>
-        <v>619</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="0"/>
-        <v>624</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="0"/>
-        <v>659</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="0"/>
-        <v>664</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="0"/>
-        <v>699</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="0"/>
-        <v>704</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="0"/>
-        <v>739</v>
-      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>466</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>503</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>510</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>547</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>559</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>596</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>605</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>647</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="2"/>
+        <v>654</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="2"/>
+        <v>691</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="2"/>
+        <v>698</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="2"/>
+        <v>735</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="2"/>
+        <v>742</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="2"/>
+        <v>781</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>788</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="2"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A12" s="24"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A13" s="24"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A14" s="24"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A15" s="24"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A16" s="24"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="24"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="24"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="24"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/excel/ganhou/ganhou.xlsx
+++ b/excel/ganhou/ganhou.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\excel\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB80745D-B901-4CE2-B87B-D5846B8EA89C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A302DD-665B-44D1-B37E-16CCE63F8933}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
   <sheets>
     <sheet name="元宝計算" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>同盟ログイン</t>
     <rPh sb="0" eb="2">
@@ -368,12 +368,6 @@
     <t>メンテ限定</t>
   </si>
   <si>
-    <t>昼調教</t>
-  </si>
-  <si>
-    <t>夜調教</t>
-  </si>
-  <si>
     <t>はじめ</t>
   </si>
   <si>
@@ -413,6 +407,94 @@
   </si>
   <si>
     <t>所持数予想</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>百花美人</t>
+    <rPh sb="0" eb="2">
+      <t>ヒャッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ビジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀貨</t>
+    <rPh sb="0" eb="2">
+      <t>ギンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昼調教</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>チョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闘技場順位</t>
+    <rPh sb="0" eb="3">
+      <t>トウギジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜調教</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>チョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当初の予想より稼いだ量</t>
+    <rPh sb="0" eb="2">
+      <t>トウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カセ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昼調教・予想</t>
+    <rPh sb="4" eb="6">
+      <t>ヨソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜調教・予想</t>
+    <rPh sb="4" eb="6">
+      <t>ヨソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイント交換</t>
+    <rPh sb="4" eb="6">
+      <t>コウカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -441,18 +523,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -567,31 +643,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -603,19 +676,22 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -934,8 +1010,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A45119-1C6C-451A-9E0A-5F25E95013BC}">
   <dimension ref="A1:AP27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -980,19 +1059,19 @@
       <c r="I1" s="3">
         <v>44469</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="11">
         <v>44470</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="11">
         <v>44471</v>
       </c>
-      <c r="L1" s="12">
+      <c r="L1" s="11">
         <v>44472</v>
       </c>
-      <c r="M1" s="12">
+      <c r="M1" s="11">
         <v>44473</v>
       </c>
-      <c r="N1" s="12">
+      <c r="N1" s="11">
         <v>44474</v>
       </c>
       <c r="O1" s="3">
@@ -1108,23 +1187,23 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1234,7 +1313,7 @@
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -1259,19 +1338,19 @@
       <c r="I3">
         <v>160</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>160</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>160</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>160</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="13">
         <v>160</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="13">
         <v>160</v>
       </c>
       <c r="O3">
@@ -1300,7 +1379,7 @@
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
@@ -1325,30 +1404,30 @@
       <c r="I4">
         <v>180</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>0</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="7">
@@ -1374,11 +1453,11 @@
         <f t="shared" ref="I6" si="1">H6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
@@ -1406,19 +1485,19 @@
       <c r="I7">
         <v>240</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>240</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>240</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <v>240</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="13">
         <v>240</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="13">
         <v>240</v>
       </c>
       <c r="O7">
@@ -1552,19 +1631,19 @@
       <c r="I8">
         <v>260</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>260</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>260</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <v>260</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>260</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="13">
         <v>260</v>
       </c>
       <c r="O8">
@@ -1618,19 +1697,19 @@
       <c r="I9">
         <v>30</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>30</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <v>30</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <v>30</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <v>30</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="13">
         <v>30</v>
       </c>
       <c r="O9">
@@ -1684,45 +1763,13 @@
       <c r="I10" s="1">
         <v>200</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>0</v>
       </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>0</v>
-      </c>
-      <c r="R10" s="8">
-        <v>0</v>
-      </c>
-      <c r="S10" s="8">
-        <v>0</v>
-      </c>
-      <c r="T10" s="8">
-        <v>0</v>
-      </c>
-      <c r="U10" s="8">
-        <v>0</v>
-      </c>
-      <c r="V10" s="8">
-        <v>0</v>
-      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
@@ -1748,17 +1795,17 @@
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="14">
+      <c r="J11" s="14"/>
+      <c r="K11" s="13">
         <v>100</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>100</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <v>100</v>
       </c>
-      <c r="N11" s="14"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
@@ -1776,13 +1823,13 @@
         <v>300</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="14">
+      <c r="J12" s="14"/>
+      <c r="K12" s="13">
         <v>400</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
@@ -1798,15 +1845,15 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="14">
+      <c r="J13" s="14"/>
+      <c r="K13" s="13">
         <v>100</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="13">
         <v>200</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
@@ -1821,11 +1868,13 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14">
+        <v>300</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
@@ -1842,13 +1891,12 @@
         <v>-300</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="O15" s="14">
         <v>-1500</v>
       </c>
-      <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
@@ -1871,25 +1919,25 @@
       <c r="I16" s="7">
         <v>-200</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="14">
         <v>-100</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="14">
         <v>-100</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="14">
         <v>-100</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="14">
         <v>-100</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="13">
         <v>-100</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1898,17 +1946,17 @@
       <c r="G17" s="2"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="15">
+      <c r="J17" s="14">
         <v>853</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1917,13 +1965,15 @@
       <c r="G18" s="2"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="15">
+      <c r="J18" s="14">
         <v>60</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="14"/>
+      <c r="K18" s="14">
+        <v>60</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="C19" s="2"/>
@@ -1933,11 +1983,11 @@
       <c r="G19" s="2"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="C20" s="2"/>
@@ -1947,11 +1997,11 @@
       <c r="G20" s="2"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
@@ -1972,87 +2022,87 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <f>SUM(C3:C21)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <f>SUM(D3:D21)</f>
         <v>1770</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <f t="shared" ref="E22:N22" si="4">SUM(E3:E21)</f>
         <v>1170</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <f t="shared" si="4"/>
         <v>1070</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <f t="shared" si="4"/>
         <v>1070</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <f t="shared" si="4"/>
         <v>755</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <f t="shared" si="4"/>
         <v>870</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="15">
         <f t="shared" si="4"/>
         <v>1503</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="15">
         <f t="shared" si="4"/>
-        <v>1190</v>
-      </c>
-      <c r="L22" s="16">
+        <v>1550</v>
+      </c>
+      <c r="L22" s="15">
         <f t="shared" si="4"/>
         <v>890</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="15">
         <f t="shared" si="4"/>
-        <v>-810</v>
-      </c>
-      <c r="N22" s="16">
+        <v>690</v>
+      </c>
+      <c r="N22" s="15">
         <f t="shared" si="4"/>
         <v>590</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="9">
         <f>SUM(O3:O21)</f>
-        <v>690</v>
-      </c>
-      <c r="P22" s="10">
+        <v>-810</v>
+      </c>
+      <c r="P22" s="9">
         <f>SUM(P3:P21)</f>
         <v>690</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="9">
         <f t="shared" ref="Q22" si="5">SUM(Q3:Q21)</f>
         <v>690</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="9">
         <f t="shared" ref="R22" si="6">SUM(R3:R21)</f>
         <v>690</v>
       </c>
-      <c r="S22" s="10">
+      <c r="S22" s="9">
         <f t="shared" ref="S22" si="7">SUM(S3:S21)</f>
         <v>690</v>
       </c>
-      <c r="T22" s="10">
+      <c r="T22" s="9">
         <f t="shared" ref="T22" si="8">SUM(T3:T21)</f>
         <v>690</v>
       </c>
-      <c r="U22" s="10">
+      <c r="U22" s="9">
         <f t="shared" ref="U22" si="9">SUM(U3:U21)</f>
         <v>690</v>
       </c>
-      <c r="V22" s="10">
+      <c r="V22" s="9">
         <f t="shared" ref="V22" si="10">SUM(V3:V21)</f>
         <v>690</v>
       </c>
@@ -2098,51 +2148,51 @@
       </c>
       <c r="K23" s="2">
         <f t="shared" si="12"/>
-        <v>23683</v>
+        <v>24043</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="12"/>
-        <v>24573</v>
+        <v>24923</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="12"/>
-        <v>23763</v>
+        <v>25613</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="12"/>
-        <v>24353</v>
+        <v>26203</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="12"/>
-        <v>25043</v>
+        <v>25393</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="12"/>
-        <v>25733</v>
+        <v>26083</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="12"/>
-        <v>26423</v>
+        <v>26773</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="12"/>
-        <v>27113</v>
+        <v>27463</v>
       </c>
       <c r="S23" s="2">
         <f t="shared" si="12"/>
-        <v>27803</v>
+        <v>28153</v>
       </c>
       <c r="T23" s="2">
         <f t="shared" si="12"/>
-        <v>28493</v>
+        <v>28843</v>
       </c>
       <c r="U23" s="2">
         <f t="shared" si="12"/>
-        <v>29183</v>
+        <v>29533</v>
       </c>
       <c r="V23" s="2">
         <f t="shared" si="12"/>
-        <v>29873</v>
+        <v>30223</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.4">
@@ -2175,52 +2225,51 @@
         <v>22493</v>
       </c>
       <c r="K24">
-        <f t="shared" si="13"/>
-        <v>23683</v>
+        <v>24033</v>
       </c>
       <c r="L24">
         <f t="shared" si="13"/>
-        <v>24573</v>
+        <v>24923</v>
       </c>
       <c r="M24">
         <f t="shared" si="13"/>
-        <v>23763</v>
+        <v>25613</v>
       </c>
       <c r="N24">
         <f t="shared" si="13"/>
-        <v>24353</v>
+        <v>26203</v>
       </c>
       <c r="O24">
         <f t="shared" si="13"/>
-        <v>25043</v>
+        <v>25393</v>
       </c>
       <c r="P24">
         <f t="shared" si="13"/>
-        <v>25733</v>
+        <v>26083</v>
       </c>
       <c r="Q24">
         <f t="shared" si="13"/>
-        <v>26423</v>
+        <v>26773</v>
       </c>
       <c r="R24">
         <f t="shared" si="13"/>
-        <v>27113</v>
+        <v>27463</v>
       </c>
       <c r="S24">
         <f t="shared" si="13"/>
-        <v>27803</v>
+        <v>28153</v>
       </c>
       <c r="T24">
         <f t="shared" si="13"/>
-        <v>28493</v>
+        <v>28843</v>
       </c>
       <c r="U24">
         <f t="shared" si="13"/>
-        <v>29183</v>
+        <v>29533</v>
       </c>
       <c r="V24">
         <f t="shared" si="13"/>
-        <v>29873</v>
+        <v>30223</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.4">
@@ -2256,8 +2305,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="L25">
         <f t="shared" si="14"/>
@@ -2307,6 +2355,9 @@
     <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="G26" t="s">
         <v>38</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.4">
@@ -2325,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA83BFC-6BE5-49B7-805D-87C39333445D}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2349,7 +2400,7 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="24">
         <v>300</v>
       </c>
       <c r="E2">
@@ -2361,7 +2412,7 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="24">
         <v>300</v>
       </c>
     </row>
@@ -2453,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF44A2E-50CE-46E9-8E9A-94BBA648205D}">
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2471,214 +2522,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="19">
+      <c r="B1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="18">
         <v>44469</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="19">
         <v>44470</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="19">
         <v>44471</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="19">
         <v>44472</v>
       </c>
-      <c r="G1" s="20">
+      <c r="G1" s="19">
         <v>44473</v>
       </c>
-      <c r="H1" s="20">
+      <c r="H1" s="19">
         <v>44474</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="18">
         <v>44475</v>
       </c>
-      <c r="J1" s="19">
+      <c r="J1" s="18">
         <v>44476</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="18">
         <v>44477</v>
       </c>
-      <c r="L1" s="19">
+      <c r="L1" s="18">
         <v>44478</v>
       </c>
-      <c r="M1" s="19">
+      <c r="M1" s="18">
         <v>44479</v>
       </c>
-      <c r="N1" s="19">
+      <c r="N1" s="18">
         <v>44480</v>
       </c>
-      <c r="O1" s="19">
+      <c r="O1" s="18">
         <v>44481</v>
       </c>
-      <c r="P1" s="19">
+      <c r="P1" s="18">
         <v>44482</v>
       </c>
-      <c r="Q1" s="19">
+      <c r="Q1" s="18">
         <v>44483</v>
       </c>
-      <c r="R1" s="19">
+      <c r="R1" s="18">
         <v>44484</v>
       </c>
-      <c r="S1" s="19">
+      <c r="S1" s="18">
         <v>44485</v>
       </c>
-      <c r="T1" s="19">
+      <c r="T1" s="18">
         <v>44486</v>
       </c>
-      <c r="U1" s="19">
+      <c r="U1" s="18">
         <v>44487</v>
       </c>
-      <c r="V1" s="19">
+      <c r="V1" s="18">
         <v>44488</v>
       </c>
-      <c r="W1" s="19">
+      <c r="W1" s="18">
         <v>44489</v>
       </c>
-      <c r="X1" s="19">
+      <c r="X1" s="18">
         <v>44490</v>
       </c>
-      <c r="Y1" s="19">
+      <c r="Y1" s="18">
         <v>44491</v>
       </c>
-      <c r="Z1" s="19">
+      <c r="Z1" s="18">
         <v>44492</v>
       </c>
-      <c r="AA1" s="19">
+      <c r="AA1" s="18">
         <v>44493</v>
       </c>
-      <c r="AB1" s="19">
+      <c r="AB1" s="18">
         <v>44494</v>
       </c>
-      <c r="AC1" s="19">
+      <c r="AC1" s="18">
         <v>44495</v>
       </c>
-      <c r="AD1" s="19">
+      <c r="AD1" s="18">
         <v>44496</v>
       </c>
-      <c r="AE1" s="19">
+      <c r="AE1" s="18">
         <v>44497</v>
       </c>
-      <c r="AF1" s="19">
+      <c r="AF1" s="18">
         <v>44498</v>
       </c>
-      <c r="AG1" s="19">
+      <c r="AG1" s="18">
         <v>44499</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18">
-        <v>5</v>
-      </c>
-      <c r="D2" s="18">
-        <v>5</v>
-      </c>
-      <c r="E2" s="18">
-        <v>5</v>
-      </c>
-      <c r="F2" s="18">
-        <v>5</v>
-      </c>
-      <c r="G2" s="18">
-        <v>5</v>
-      </c>
-      <c r="H2" s="18">
-        <v>5</v>
-      </c>
-      <c r="I2" s="18">
-        <v>5</v>
-      </c>
-      <c r="J2" s="18">
-        <v>5</v>
-      </c>
-      <c r="K2" s="18">
-        <v>5</v>
-      </c>
-      <c r="L2" s="18">
-        <v>5</v>
-      </c>
-      <c r="M2" s="18">
-        <v>5</v>
-      </c>
-      <c r="N2" s="18">
-        <v>5</v>
-      </c>
-      <c r="O2" s="18">
-        <v>5</v>
-      </c>
-      <c r="P2" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="18">
-        <v>5</v>
-      </c>
-      <c r="R2" s="18">
-        <v>5</v>
-      </c>
-      <c r="S2" s="18">
-        <v>5</v>
-      </c>
-      <c r="T2" s="18">
-        <v>5</v>
-      </c>
-      <c r="U2" s="18">
-        <v>5</v>
-      </c>
-      <c r="V2" s="18">
-        <v>5</v>
-      </c>
-      <c r="W2" s="18">
-        <v>5</v>
-      </c>
-      <c r="X2" s="18">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="18">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="18">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="18">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="18">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="18">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="18">
-        <v>5</v>
-      </c>
-      <c r="AE2" s="18">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="18">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="18">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17">
+        <v>5</v>
+      </c>
+      <c r="D2" s="17">
+        <v>5</v>
+      </c>
+      <c r="E2" s="17">
+        <v>5</v>
+      </c>
+      <c r="F2" s="17">
+        <v>5</v>
+      </c>
+      <c r="G2" s="17">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17">
+        <v>5</v>
+      </c>
+      <c r="I2" s="17">
+        <v>5</v>
+      </c>
+      <c r="J2" s="17">
+        <v>5</v>
+      </c>
+      <c r="K2" s="17">
+        <v>5</v>
+      </c>
+      <c r="L2" s="17">
+        <v>5</v>
+      </c>
+      <c r="M2" s="17">
+        <v>5</v>
+      </c>
+      <c r="N2" s="17">
+        <v>5</v>
+      </c>
+      <c r="O2" s="17">
+        <v>5</v>
+      </c>
+      <c r="P2" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>5</v>
+      </c>
+      <c r="R2" s="17">
+        <v>5</v>
+      </c>
+      <c r="S2" s="17">
+        <v>5</v>
+      </c>
+      <c r="T2" s="17">
+        <v>5</v>
+      </c>
+      <c r="U2" s="17">
+        <v>5</v>
+      </c>
+      <c r="V2" s="17">
+        <v>5</v>
+      </c>
+      <c r="W2" s="17">
+        <v>5</v>
+      </c>
+      <c r="X2" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="17">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="17">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="17">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="17">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="17">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="17">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="17">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18">
-        <v>5</v>
-      </c>
-      <c r="D3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17">
+        <v>5</v>
+      </c>
+      <c r="D3" s="17"/>
       <c r="H3">
         <v>5</v>
       </c>
@@ -2699,188 +2750,137 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A4" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>18</v>
-      </c>
+      <c r="A4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18">
-        <v>33</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="K5">
-        <v>30</v>
-      </c>
-      <c r="M5">
-        <v>30</v>
-      </c>
-      <c r="O5">
-        <v>30</v>
-      </c>
-      <c r="Q5">
-        <v>30</v>
-      </c>
-      <c r="S5">
-        <v>30</v>
-      </c>
-      <c r="U5">
-        <v>30</v>
-      </c>
-      <c r="W5">
-        <v>30</v>
-      </c>
-      <c r="Y5">
-        <v>30</v>
-      </c>
-      <c r="AA5">
-        <v>30</v>
-      </c>
-      <c r="AC5">
-        <v>30</v>
-      </c>
-      <c r="AE5">
-        <v>30</v>
-      </c>
-      <c r="AG5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A7" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18">
-        <v>2</v>
-      </c>
-      <c r="D7" s="18">
-        <v>2</v>
-      </c>
-      <c r="E7" s="18">
-        <v>2</v>
-      </c>
-      <c r="F7" s="18">
-        <v>2</v>
-      </c>
-      <c r="G7" s="18">
-        <v>2</v>
-      </c>
-      <c r="H7" s="18">
-        <v>2</v>
-      </c>
-      <c r="I7" s="18">
-        <v>2</v>
-      </c>
-      <c r="J7" s="18">
-        <v>2</v>
-      </c>
-      <c r="K7" s="18">
-        <v>2</v>
-      </c>
-      <c r="L7" s="18">
-        <v>2</v>
-      </c>
-      <c r="M7" s="18">
-        <v>2</v>
-      </c>
-      <c r="N7" s="18">
-        <v>2</v>
-      </c>
-      <c r="O7" s="18">
-        <v>2</v>
-      </c>
-      <c r="P7" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>2</v>
-      </c>
-      <c r="R7" s="18">
-        <v>2</v>
-      </c>
-      <c r="S7" s="18">
-        <v>2</v>
-      </c>
-      <c r="T7" s="18">
-        <v>2</v>
-      </c>
-      <c r="U7" s="18">
-        <v>2</v>
-      </c>
-      <c r="V7" s="18">
-        <v>2</v>
-      </c>
-      <c r="W7" s="18">
-        <v>2</v>
-      </c>
-      <c r="X7" s="18">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="18">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="18">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="18">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="18">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="18">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="18">
+      <c r="A7" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17">
+        <v>2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>2</v>
+      </c>
+      <c r="H7" s="17">
+        <v>2</v>
+      </c>
+      <c r="I7" s="17">
+        <v>2</v>
+      </c>
+      <c r="J7" s="17">
+        <v>2</v>
+      </c>
+      <c r="K7" s="17">
+        <v>2</v>
+      </c>
+      <c r="L7" s="17">
+        <v>2</v>
+      </c>
+      <c r="M7" s="17">
+        <v>2</v>
+      </c>
+      <c r="N7" s="17">
+        <v>2</v>
+      </c>
+      <c r="O7" s="17">
+        <v>2</v>
+      </c>
+      <c r="P7" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>2</v>
+      </c>
+      <c r="R7" s="17">
+        <v>2</v>
+      </c>
+      <c r="S7" s="17">
+        <v>2</v>
+      </c>
+      <c r="T7" s="17">
+        <v>2</v>
+      </c>
+      <c r="U7" s="17">
+        <v>2</v>
+      </c>
+      <c r="V7" s="17">
+        <v>2</v>
+      </c>
+      <c r="W7" s="17">
+        <v>2</v>
+      </c>
+      <c r="X7" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="17">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="17">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="17">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="A8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="J8">
         <v>2</v>
       </c>
@@ -2888,142 +2888,142 @@
         <v>2</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>54</v>
       </c>
       <c r="C10">
         <f>B10+SUM(C2:C9)</f>
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:AG10" si="0">C10+SUM(D2:D9)</f>
-        <v>134</v>
+        <f>C11+SUM(D2:D9)</f>
+        <v>116</v>
       </c>
       <c r="E10">
         <f>D11+SUM(E2:E9)</f>
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:T10" si="1">E11+SUM(F2:F9)</f>
-        <v>178</v>
+        <f t="shared" ref="F10:T10" si="0">E11+SUM(F2:F9)</f>
+        <v>226</v>
       </c>
       <c r="G10">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>313</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>334</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>341</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ref="D10:AG10" si="1">T10+SUM(U2:U9)</f>
+        <v>355</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="1"/>
-        <v>215</v>
-      </c>
-      <c r="H10">
+        <v>367</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="1"/>
-        <v>227</v>
-      </c>
-      <c r="I10">
+        <v>374</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="1"/>
-        <v>264</v>
-      </c>
-      <c r="J10">
+        <v>384</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="1"/>
-        <v>273</v>
-      </c>
-      <c r="K10">
+        <v>396</v>
+      </c>
+      <c r="Z10">
         <f t="shared" si="1"/>
-        <v>315</v>
-      </c>
-      <c r="L10">
+        <v>403</v>
+      </c>
+      <c r="AA10">
         <f t="shared" si="1"/>
-        <v>322</v>
-      </c>
-      <c r="M10">
+        <v>410</v>
+      </c>
+      <c r="AB10">
         <f t="shared" si="1"/>
-        <v>359</v>
-      </c>
-      <c r="N10">
+        <v>417</v>
+      </c>
+      <c r="AC10">
         <f t="shared" si="1"/>
-        <v>366</v>
-      </c>
-      <c r="O10">
+        <v>424</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="1"/>
-        <v>408</v>
-      </c>
-      <c r="P10">
+        <v>431</v>
+      </c>
+      <c r="AE10">
         <f t="shared" si="1"/>
-        <v>415</v>
-      </c>
-      <c r="Q10">
+        <v>441</v>
+      </c>
+      <c r="AF10">
         <f t="shared" si="1"/>
-        <v>454</v>
-      </c>
-      <c r="R10">
+        <v>448</v>
+      </c>
+      <c r="AG10">
         <f t="shared" si="1"/>
-        <v>466</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="1"/>
-        <v>503</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="1"/>
-        <v>510</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>547</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="0"/>
-        <v>559</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="0"/>
-        <v>596</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="0"/>
-        <v>605</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="0"/>
-        <v>647</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="0"/>
-        <v>654</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="0"/>
-        <v>691</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="0"/>
-        <v>698</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="0"/>
-        <v>735</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="0"/>
-        <v>742</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="0"/>
-        <v>781</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="0"/>
-        <v>788</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="0"/>
-        <v>825</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
@@ -3041,148 +3041,190 @@
         <v>134</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:AG11" si="2">E$10+SUM(E12:E20)</f>
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>178</v>
+        <f t="shared" ref="E11:AG11" si="2">F$10+SUM(F12:F20)</f>
+        <v>226</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>359</v>
+        <v>287</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>408</v>
+        <v>306</v>
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>415</v>
+        <v>313</v>
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>454</v>
+        <v>322</v>
       </c>
       <c r="R11">
         <f t="shared" si="2"/>
-        <v>466</v>
+        <v>334</v>
       </c>
       <c r="S11">
         <f t="shared" si="2"/>
-        <v>503</v>
+        <v>341</v>
       </c>
       <c r="T11">
         <f t="shared" si="2"/>
-        <v>510</v>
+        <v>348</v>
       </c>
       <c r="U11">
         <f t="shared" si="2"/>
-        <v>547</v>
+        <v>355</v>
       </c>
       <c r="V11">
         <f t="shared" si="2"/>
-        <v>559</v>
+        <v>367</v>
       </c>
       <c r="W11">
         <f t="shared" si="2"/>
-        <v>596</v>
+        <v>374</v>
       </c>
       <c r="X11">
         <f t="shared" si="2"/>
-        <v>605</v>
+        <v>384</v>
       </c>
       <c r="Y11">
         <f t="shared" si="2"/>
-        <v>647</v>
+        <v>396</v>
       </c>
       <c r="Z11">
         <f t="shared" si="2"/>
-        <v>654</v>
+        <v>403</v>
       </c>
       <c r="AA11">
         <f t="shared" si="2"/>
-        <v>691</v>
+        <v>410</v>
       </c>
       <c r="AB11">
         <f t="shared" si="2"/>
-        <v>698</v>
+        <v>417</v>
       </c>
       <c r="AC11">
         <f t="shared" si="2"/>
-        <v>735</v>
+        <v>424</v>
       </c>
       <c r="AD11">
         <f t="shared" si="2"/>
-        <v>742</v>
+        <v>431</v>
       </c>
       <c r="AE11">
         <f t="shared" si="2"/>
-        <v>781</v>
+        <v>441</v>
       </c>
       <c r="AF11">
         <f t="shared" si="2"/>
-        <v>788</v>
+        <v>448</v>
       </c>
       <c r="AG11">
         <f t="shared" si="2"/>
-        <v>825</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A16" s="24"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="24"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="24"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="24"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="24"/>
+      <c r="A16" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="23"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <f>E11-E10-SUM(E12:E19)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <f>SUM(B12:AG20)</f>
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/excel/ganhou/ganhou.xlsx
+++ b/excel/ganhou/ganhou.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\excel\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A302DD-665B-44D1-B37E-16CCE63F8933}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FA27D5-00EE-4D36-AC9B-5998B03672C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
   <sheets>
     <sheet name="元宝計算" sheetId="2" r:id="rId1"/>
@@ -371,16 +371,6 @@
     <t>はじめ</t>
   </si>
   <si>
-    <t>銀貨購入</t>
-    <rPh sb="0" eb="2">
-      <t>ギンカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>願い返し</t>
     <rPh sb="0" eb="1">
       <t>ネガ</t>
@@ -477,23 +467,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>昼調教・予想</t>
-    <rPh sb="4" eb="6">
-      <t>ヨソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>夜調教・予想</t>
-    <rPh sb="4" eb="6">
-      <t>ヨソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ポイント交換</t>
     <rPh sb="4" eb="6">
       <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闘技場+10</t>
+    <rPh sb="0" eb="3">
+      <t>トウギジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>謎+20</t>
+    <rPh sb="0" eb="1">
+      <t>ナゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍武</t>
+    <rPh sb="0" eb="1">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タケシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -523,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +551,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,6 +698,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1011,10 +1020,10 @@
   <dimension ref="A1:AP27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1025,7 +1034,8 @@
     <col min="4" max="5" width="10.375" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
@@ -1937,7 +1947,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1956,7 +1966,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1971,7 +1981,9 @@
       <c r="K18" s="14">
         <v>60</v>
       </c>
-      <c r="L18" s="14"/>
+      <c r="L18" s="14">
+        <v>60</v>
+      </c>
       <c r="M18" s="14"/>
       <c r="N18" s="13"/>
     </row>
@@ -2064,7 +2076,7 @@
       </c>
       <c r="L22" s="15">
         <f t="shared" si="4"/>
-        <v>890</v>
+        <v>950</v>
       </c>
       <c r="M22" s="15">
         <f t="shared" si="4"/>
@@ -2152,47 +2164,47 @@
       </c>
       <c r="L23" s="2">
         <f t="shared" si="12"/>
-        <v>24923</v>
+        <v>24983</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="12"/>
-        <v>25613</v>
+        <v>25693</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="12"/>
-        <v>26203</v>
+        <v>26283</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="12"/>
-        <v>25393</v>
+        <v>25473</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="12"/>
-        <v>26083</v>
+        <v>26163</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="12"/>
-        <v>26773</v>
+        <v>26853</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="12"/>
-        <v>27463</v>
+        <v>27543</v>
       </c>
       <c r="S23" s="2">
         <f t="shared" si="12"/>
-        <v>28153</v>
+        <v>28233</v>
       </c>
       <c r="T23" s="2">
         <f t="shared" si="12"/>
-        <v>28843</v>
+        <v>28923</v>
       </c>
       <c r="U23" s="2">
         <f t="shared" si="12"/>
-        <v>29533</v>
+        <v>29613</v>
       </c>
       <c r="V23" s="2">
         <f t="shared" si="12"/>
-        <v>30223</v>
+        <v>30303</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.4">
@@ -2228,48 +2240,47 @@
         <v>24033</v>
       </c>
       <c r="L24">
-        <f t="shared" si="13"/>
-        <v>24923</v>
+        <v>25003</v>
       </c>
       <c r="M24">
         <f t="shared" si="13"/>
-        <v>25613</v>
+        <v>25693</v>
       </c>
       <c r="N24">
         <f t="shared" si="13"/>
-        <v>26203</v>
+        <v>26283</v>
       </c>
       <c r="O24">
         <f t="shared" si="13"/>
-        <v>25393</v>
+        <v>25473</v>
       </c>
       <c r="P24">
         <f t="shared" si="13"/>
-        <v>26083</v>
+        <v>26163</v>
       </c>
       <c r="Q24">
         <f t="shared" si="13"/>
-        <v>26773</v>
+        <v>26853</v>
       </c>
       <c r="R24">
         <f t="shared" si="13"/>
-        <v>27463</v>
+        <v>27543</v>
       </c>
       <c r="S24">
         <f t="shared" si="13"/>
-        <v>28153</v>
+        <v>28233</v>
       </c>
       <c r="T24">
         <f t="shared" si="13"/>
-        <v>28843</v>
+        <v>28923</v>
       </c>
       <c r="U24">
         <f t="shared" si="13"/>
-        <v>29533</v>
+        <v>29613</v>
       </c>
       <c r="V24">
         <f t="shared" si="13"/>
-        <v>30223</v>
+        <v>30303</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.4">
@@ -2309,7 +2320,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M25">
         <f t="shared" si="14"/>
@@ -2357,12 +2368,18 @@
         <v>38</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="G27" t="s">
         <v>39</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2376,7 +2393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA83BFC-6BE5-49B7-805D-87C39333445D}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
@@ -2504,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF44A2E-50CE-46E9-8E9A-94BBA648205D}">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2750,480 +2767,462 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
-        <v>58</v>
+      <c r="A4" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="17">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17">
+        <v>2</v>
+      </c>
+      <c r="F4" s="17">
+        <v>2</v>
+      </c>
+      <c r="G4" s="17">
+        <v>2</v>
+      </c>
+      <c r="H4" s="17">
+        <v>2</v>
+      </c>
+      <c r="I4" s="17">
+        <v>2</v>
+      </c>
+      <c r="J4" s="17">
+        <v>2</v>
+      </c>
+      <c r="K4" s="17">
+        <v>2</v>
+      </c>
+      <c r="L4" s="17">
+        <v>2</v>
+      </c>
+      <c r="M4" s="17">
+        <v>2</v>
+      </c>
+      <c r="N4" s="17">
+        <v>2</v>
+      </c>
+      <c r="O4" s="17">
+        <v>2</v>
+      </c>
+      <c r="P4" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>2</v>
+      </c>
+      <c r="R4" s="17">
+        <v>2</v>
+      </c>
+      <c r="S4" s="17">
+        <v>2</v>
+      </c>
+      <c r="T4" s="17">
+        <v>2</v>
+      </c>
+      <c r="U4" s="17">
+        <v>2</v>
+      </c>
+      <c r="V4" s="17">
+        <v>2</v>
+      </c>
+      <c r="W4" s="17">
+        <v>2</v>
+      </c>
+      <c r="X4" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="17">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="17">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="17">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="17">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="17">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="17">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="22" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17">
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="25">
+        <v>54</v>
+      </c>
+      <c r="C7" s="25">
+        <f>B7+SUM(C2:C6)</f>
+        <v>66</v>
+      </c>
+      <c r="D7" s="25">
+        <f>C8+SUM(D2:D6)</f>
+        <v>106</v>
+      </c>
+      <c r="E7" s="25">
+        <f>D8+SUM(E2:E6)</f>
+        <v>141</v>
+      </c>
+      <c r="F7" s="25">
+        <f>E8+SUM(F2:F6)</f>
+        <v>226</v>
+      </c>
+      <c r="G7" s="25">
+        <f>F8+SUM(G2:G6)</f>
+        <v>243</v>
+      </c>
+      <c r="H7" s="25">
+        <f>G8+SUM(H2:H6)</f>
+        <v>255</v>
+      </c>
+      <c r="I7" s="25">
+        <f>H8+SUM(I2:I6)</f>
+        <v>262</v>
+      </c>
+      <c r="J7" s="25">
+        <f>I8+SUM(J2:J6)</f>
+        <v>271</v>
+      </c>
+      <c r="K7" s="25">
+        <f>J8+SUM(K2:K6)</f>
+        <v>283</v>
+      </c>
+      <c r="L7" s="25">
+        <f>K8+SUM(L2:L6)</f>
+        <v>290</v>
+      </c>
+      <c r="M7" s="25">
+        <f>L8+SUM(M2:M6)</f>
+        <v>297</v>
+      </c>
+      <c r="N7" s="25">
+        <f>M8+SUM(N2:N6)</f>
+        <v>304</v>
+      </c>
+      <c r="O7" s="25">
+        <f>N8+SUM(O2:O6)</f>
+        <v>316</v>
+      </c>
+      <c r="P7" s="25">
+        <f>O8+SUM(P2:P6)</f>
+        <v>323</v>
+      </c>
+      <c r="Q7" s="25">
+        <f>P8+SUM(Q2:Q6)</f>
+        <v>332</v>
+      </c>
+      <c r="R7" s="25">
+        <f>Q8+SUM(R2:R6)</f>
+        <v>344</v>
+      </c>
+      <c r="S7" s="25">
+        <f>R8+SUM(S2:S6)</f>
+        <v>351</v>
+      </c>
+      <c r="T7" s="25">
+        <f>S8+SUM(T2:T6)</f>
+        <v>358</v>
+      </c>
+      <c r="U7" s="25">
+        <f>T7+SUM(U2:U6)</f>
+        <v>365</v>
+      </c>
+      <c r="V7" s="25">
+        <f>U7+SUM(V2:V6)</f>
+        <v>377</v>
+      </c>
+      <c r="W7" s="25">
+        <f>V7+SUM(W2:W6)</f>
+        <v>384</v>
+      </c>
+      <c r="X7" s="25">
+        <f>W7+SUM(X2:X6)</f>
+        <v>394</v>
+      </c>
+      <c r="Y7" s="25">
+        <f>X7+SUM(Y2:Y6)</f>
+        <v>406</v>
+      </c>
+      <c r="Z7" s="25">
+        <f>Y7+SUM(Z2:Z6)</f>
+        <v>413</v>
+      </c>
+      <c r="AA7" s="25">
+        <f>Z7+SUM(AA2:AA6)</f>
+        <v>420</v>
+      </c>
+      <c r="AB7" s="25">
+        <f>AA7+SUM(AB2:AB6)</f>
+        <v>427</v>
+      </c>
+      <c r="AC7" s="25">
+        <f>AB7+SUM(AC2:AC6)</f>
+        <v>434</v>
+      </c>
+      <c r="AD7" s="25">
+        <f>AC7+SUM(AD2:AD6)</f>
+        <v>441</v>
+      </c>
+      <c r="AE7" s="25">
+        <f>AD7+SUM(AE2:AE6)</f>
+        <v>451</v>
+      </c>
+      <c r="AF7" s="25">
+        <f>AE7+SUM(AF2:AF6)</f>
+        <v>458</v>
+      </c>
+      <c r="AG7" s="25">
+        <f>AF7+SUM(AG2:AG6)</f>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="25">
+        <v>54</v>
+      </c>
+      <c r="C8" s="25">
+        <v>99</v>
+      </c>
+      <c r="D8" s="25">
+        <f>D$7+SUM(D9:D17)</f>
+        <v>134</v>
+      </c>
+      <c r="E8" s="25">
+        <v>219</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" ref="F8:AG8" si="0">F$7+SUM(F9:F17)</f>
+        <v>236</v>
+      </c>
+      <c r="G8" s="25">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="H8" s="25">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="I8" s="25">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
+      <c r="J8" s="25">
+        <f t="shared" si="0"/>
+        <v>271</v>
+      </c>
+      <c r="K8" s="25">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="L8" s="25">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="M8" s="25">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="N8" s="25">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+      <c r="O8" s="25">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="P8" s="25">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="Q8" s="25">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="R8" s="25">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="S8" s="25">
+        <f t="shared" si="0"/>
+        <v>351</v>
+      </c>
+      <c r="T8" s="25">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="U8" s="25">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="V8" s="25">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+      <c r="W8" s="25">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="X8" s="25">
+        <f t="shared" si="0"/>
+        <v>394</v>
+      </c>
+      <c r="Y8" s="25">
+        <f t="shared" si="0"/>
+        <v>406</v>
+      </c>
+      <c r="Z8" s="25">
+        <f t="shared" si="0"/>
+        <v>413</v>
+      </c>
+      <c r="AA8" s="25">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="AB8" s="25">
+        <f t="shared" si="0"/>
+        <v>427</v>
+      </c>
+      <c r="AC8" s="25">
+        <f t="shared" si="0"/>
+        <v>434</v>
+      </c>
+      <c r="AD8" s="25">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+      <c r="AE8" s="25">
+        <f t="shared" si="0"/>
+        <v>451</v>
+      </c>
+      <c r="AF8" s="25">
+        <f t="shared" si="0"/>
+        <v>458</v>
+      </c>
+      <c r="AG8" s="25">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17">
-        <v>2</v>
-      </c>
-      <c r="E7" s="17">
-        <v>2</v>
-      </c>
-      <c r="F7" s="17">
-        <v>2</v>
-      </c>
-      <c r="G7" s="17">
-        <v>2</v>
-      </c>
-      <c r="H7" s="17">
-        <v>2</v>
-      </c>
-      <c r="I7" s="17">
-        <v>2</v>
-      </c>
-      <c r="J7" s="17">
-        <v>2</v>
-      </c>
-      <c r="K7" s="17">
-        <v>2</v>
-      </c>
-      <c r="L7" s="17">
-        <v>2</v>
-      </c>
-      <c r="M7" s="17">
-        <v>2</v>
-      </c>
-      <c r="N7" s="17">
-        <v>2</v>
-      </c>
-      <c r="O7" s="17">
-        <v>2</v>
-      </c>
-      <c r="P7" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>2</v>
-      </c>
-      <c r="R7" s="17">
-        <v>2</v>
-      </c>
-      <c r="S7" s="17">
-        <v>2</v>
-      </c>
-      <c r="T7" s="17">
-        <v>2</v>
-      </c>
-      <c r="U7" s="17">
-        <v>2</v>
-      </c>
-      <c r="V7" s="17">
-        <v>2</v>
-      </c>
-      <c r="W7" s="17">
-        <v>2</v>
-      </c>
-      <c r="X7" s="17">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="17">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="17">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="17">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="17">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="17">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="17">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="17">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="17">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="X8">
-        <v>3</v>
-      </c>
-      <c r="AE8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10">
-        <v>54</v>
-      </c>
-      <c r="C10">
-        <f>B10+SUM(C2:C9)</f>
-        <v>66</v>
-      </c>
-      <c r="D10">
-        <f>C11+SUM(D2:D9)</f>
-        <v>116</v>
-      </c>
       <c r="E10">
-        <f>D11+SUM(E2:E9)</f>
-        <v>141</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10:T10" si="0">E11+SUM(F2:F9)</f>
-        <v>226</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>233</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>245</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>252</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>261</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>273</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>287</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>294</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>306</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>313</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>322</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="0"/>
-        <v>334</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>341</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
-        <v>348</v>
-      </c>
-      <c r="U10">
-        <f t="shared" ref="D10:AG10" si="1">T10+SUM(U2:U9)</f>
-        <v>355</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="1"/>
-        <v>367</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="1"/>
-        <v>374</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="1"/>
-        <v>384</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="1"/>
-        <v>396</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="1"/>
-        <v>403</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="1"/>
-        <v>410</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="1"/>
-        <v>417</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="1"/>
-        <v>424</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="1"/>
-        <v>431</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="1"/>
-        <v>441</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="1"/>
-        <v>448</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="1"/>
-        <v>455</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>54</v>
-      </c>
-      <c r="C11">
-        <v>99</v>
+      <c r="A11" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="D11">
-        <f>D$10+SUM(D12:D20)</f>
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>219</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ref="E11:AG11" si="2">F$10+SUM(F12:F20)</f>
-        <v>226</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>233</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>245</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>252</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>261</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
-        <v>273</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>280</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>287</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="2"/>
-        <v>306</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>313</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>322</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="2"/>
-        <v>334</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="2"/>
-        <v>341</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="2"/>
-        <v>348</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="2"/>
-        <v>355</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="2"/>
-        <v>367</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="2"/>
-        <v>374</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="2"/>
-        <v>384</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="2"/>
-        <v>396</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="2"/>
-        <v>403</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="2"/>
-        <v>410</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="2"/>
-        <v>417</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="2"/>
-        <v>424</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="2"/>
-        <v>431</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="2"/>
-        <v>441</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="2"/>
-        <v>448</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="2"/>
-        <v>455</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="23" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A15" s="23"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D14">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A15" s="23" t="s">
+      <c r="E17">
+        <f>E8-E7-SUM(E9:E16)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>56</v>
       </c>
-      <c r="C15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A16" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="23"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="23"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="23"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20">
-        <f>E11-E10-SUM(E12:E19)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21">
-        <f>SUM(B12:AG20)</f>
-        <v>129</v>
+      <c r="C18">
+        <f>SUM(B9:AG17)</f>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ganhou/ganhou.xlsx
+++ b/excel/ganhou/ganhou.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\excel\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FA27D5-00EE-4D36-AC9B-5998B03672C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA9F537-0517-4DFC-94D2-6E254E5F15C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
@@ -2524,7 +2524,7 @@
   <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2897,124 +2897,124 @@
         <v>66</v>
       </c>
       <c r="D7" s="25">
-        <f>C8+SUM(D2:D6)</f>
+        <f t="shared" ref="D7:T7" si="0">C8+SUM(D2:D6)</f>
         <v>106</v>
       </c>
       <c r="E7" s="25">
-        <f>D8+SUM(E2:E6)</f>
+        <f t="shared" si="0"/>
         <v>141</v>
       </c>
       <c r="F7" s="25">
-        <f>E8+SUM(F2:F6)</f>
+        <f t="shared" si="0"/>
         <v>226</v>
       </c>
       <c r="G7" s="25">
-        <f>F8+SUM(G2:G6)</f>
-        <v>243</v>
+        <f t="shared" si="0"/>
+        <v>263</v>
       </c>
       <c r="H7" s="25">
-        <f>G8+SUM(H2:H6)</f>
-        <v>255</v>
+        <f t="shared" si="0"/>
+        <v>275</v>
       </c>
       <c r="I7" s="25">
-        <f>H8+SUM(I2:I6)</f>
-        <v>262</v>
+        <f t="shared" si="0"/>
+        <v>282</v>
       </c>
       <c r="J7" s="25">
-        <f>I8+SUM(J2:J6)</f>
-        <v>271</v>
+        <f t="shared" si="0"/>
+        <v>291</v>
       </c>
       <c r="K7" s="25">
-        <f>J8+SUM(K2:K6)</f>
-        <v>283</v>
+        <f t="shared" si="0"/>
+        <v>303</v>
       </c>
       <c r="L7" s="25">
-        <f>K8+SUM(L2:L6)</f>
-        <v>290</v>
+        <f t="shared" si="0"/>
+        <v>310</v>
       </c>
       <c r="M7" s="25">
-        <f>L8+SUM(M2:M6)</f>
-        <v>297</v>
+        <f t="shared" si="0"/>
+        <v>317</v>
       </c>
       <c r="N7" s="25">
-        <f>M8+SUM(N2:N6)</f>
-        <v>304</v>
+        <f t="shared" si="0"/>
+        <v>324</v>
       </c>
       <c r="O7" s="25">
-        <f>N8+SUM(O2:O6)</f>
-        <v>316</v>
+        <f t="shared" si="0"/>
+        <v>336</v>
       </c>
       <c r="P7" s="25">
-        <f>O8+SUM(P2:P6)</f>
-        <v>323</v>
+        <f t="shared" si="0"/>
+        <v>343</v>
       </c>
       <c r="Q7" s="25">
-        <f>P8+SUM(Q2:Q6)</f>
-        <v>332</v>
+        <f t="shared" si="0"/>
+        <v>352</v>
       </c>
       <c r="R7" s="25">
-        <f>Q8+SUM(R2:R6)</f>
-        <v>344</v>
+        <f t="shared" si="0"/>
+        <v>364</v>
       </c>
       <c r="S7" s="25">
-        <f>R8+SUM(S2:S6)</f>
-        <v>351</v>
+        <f t="shared" si="0"/>
+        <v>371</v>
       </c>
       <c r="T7" s="25">
-        <f>S8+SUM(T2:T6)</f>
-        <v>358</v>
+        <f t="shared" si="0"/>
+        <v>378</v>
       </c>
       <c r="U7" s="25">
-        <f>T7+SUM(U2:U6)</f>
-        <v>365</v>
+        <f t="shared" ref="U7:AG7" si="1">T7+SUM(U2:U6)</f>
+        <v>385</v>
       </c>
       <c r="V7" s="25">
-        <f>U7+SUM(V2:V6)</f>
-        <v>377</v>
+        <f t="shared" si="1"/>
+        <v>397</v>
       </c>
       <c r="W7" s="25">
-        <f>V7+SUM(W2:W6)</f>
-        <v>384</v>
+        <f t="shared" si="1"/>
+        <v>404</v>
       </c>
       <c r="X7" s="25">
-        <f>W7+SUM(X2:X6)</f>
-        <v>394</v>
+        <f t="shared" si="1"/>
+        <v>414</v>
       </c>
       <c r="Y7" s="25">
-        <f>X7+SUM(Y2:Y6)</f>
-        <v>406</v>
+        <f t="shared" si="1"/>
+        <v>426</v>
       </c>
       <c r="Z7" s="25">
-        <f>Y7+SUM(Z2:Z6)</f>
-        <v>413</v>
+        <f t="shared" si="1"/>
+        <v>433</v>
       </c>
       <c r="AA7" s="25">
-        <f>Z7+SUM(AA2:AA6)</f>
-        <v>420</v>
+        <f t="shared" si="1"/>
+        <v>440</v>
       </c>
       <c r="AB7" s="25">
-        <f>AA7+SUM(AB2:AB6)</f>
-        <v>427</v>
+        <f t="shared" si="1"/>
+        <v>447</v>
       </c>
       <c r="AC7" s="25">
-        <f>AB7+SUM(AC2:AC6)</f>
-        <v>434</v>
+        <f t="shared" si="1"/>
+        <v>454</v>
       </c>
       <c r="AD7" s="25">
-        <f>AC7+SUM(AD2:AD6)</f>
-        <v>441</v>
+        <f t="shared" si="1"/>
+        <v>461</v>
       </c>
       <c r="AE7" s="25">
-        <f>AD7+SUM(AE2:AE6)</f>
-        <v>451</v>
+        <f t="shared" si="1"/>
+        <v>471</v>
       </c>
       <c r="AF7" s="25">
-        <f>AE7+SUM(AF2:AF6)</f>
-        <v>458</v>
+        <f t="shared" si="1"/>
+        <v>478</v>
       </c>
       <c r="AG7" s="25">
-        <f>AF7+SUM(AG2:AG6)</f>
-        <v>465</v>
+        <f t="shared" si="1"/>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.4">
@@ -3035,116 +3035,116 @@
         <v>219</v>
       </c>
       <c r="F8" s="25">
-        <f t="shared" ref="F8:AG8" si="0">F$7+SUM(F9:F17)</f>
-        <v>236</v>
+        <f t="shared" ref="F8:AG8" si="2">F$7+SUM(F9:F17)</f>
+        <v>256</v>
       </c>
       <c r="G8" s="25">
-        <f t="shared" si="0"/>
-        <v>243</v>
+        <f t="shared" si="2"/>
+        <v>263</v>
       </c>
       <c r="H8" s="25">
-        <f t="shared" si="0"/>
-        <v>255</v>
+        <f t="shared" si="2"/>
+        <v>275</v>
       </c>
       <c r="I8" s="25">
-        <f t="shared" si="0"/>
-        <v>262</v>
+        <f t="shared" si="2"/>
+        <v>282</v>
       </c>
       <c r="J8" s="25">
-        <f t="shared" si="0"/>
-        <v>271</v>
+        <f t="shared" si="2"/>
+        <v>291</v>
       </c>
       <c r="K8" s="25">
-        <f t="shared" si="0"/>
-        <v>283</v>
+        <f t="shared" si="2"/>
+        <v>303</v>
       </c>
       <c r="L8" s="25">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <f t="shared" si="2"/>
+        <v>310</v>
       </c>
       <c r="M8" s="25">
-        <f t="shared" si="0"/>
-        <v>297</v>
+        <f t="shared" si="2"/>
+        <v>317</v>
       </c>
       <c r="N8" s="25">
-        <f t="shared" si="0"/>
-        <v>304</v>
+        <f t="shared" si="2"/>
+        <v>324</v>
       </c>
       <c r="O8" s="25">
-        <f t="shared" si="0"/>
-        <v>316</v>
+        <f t="shared" si="2"/>
+        <v>336</v>
       </c>
       <c r="P8" s="25">
-        <f t="shared" si="0"/>
-        <v>323</v>
+        <f t="shared" si="2"/>
+        <v>343</v>
       </c>
       <c r="Q8" s="25">
-        <f t="shared" si="0"/>
-        <v>332</v>
+        <f t="shared" si="2"/>
+        <v>352</v>
       </c>
       <c r="R8" s="25">
-        <f t="shared" si="0"/>
-        <v>344</v>
+        <f t="shared" si="2"/>
+        <v>364</v>
       </c>
       <c r="S8" s="25">
-        <f t="shared" si="0"/>
-        <v>351</v>
+        <f t="shared" si="2"/>
+        <v>371</v>
       </c>
       <c r="T8" s="25">
-        <f t="shared" si="0"/>
-        <v>358</v>
+        <f t="shared" si="2"/>
+        <v>378</v>
       </c>
       <c r="U8" s="25">
-        <f t="shared" si="0"/>
-        <v>365</v>
+        <f t="shared" si="2"/>
+        <v>385</v>
       </c>
       <c r="V8" s="25">
-        <f t="shared" si="0"/>
-        <v>377</v>
+        <f t="shared" si="2"/>
+        <v>397</v>
       </c>
       <c r="W8" s="25">
-        <f t="shared" si="0"/>
-        <v>384</v>
+        <f t="shared" si="2"/>
+        <v>404</v>
       </c>
       <c r="X8" s="25">
-        <f t="shared" si="0"/>
-        <v>394</v>
+        <f t="shared" si="2"/>
+        <v>414</v>
       </c>
       <c r="Y8" s="25">
-        <f t="shared" si="0"/>
-        <v>406</v>
+        <f t="shared" si="2"/>
+        <v>426</v>
       </c>
       <c r="Z8" s="25">
-        <f t="shared" si="0"/>
-        <v>413</v>
+        <f t="shared" si="2"/>
+        <v>433</v>
       </c>
       <c r="AA8" s="25">
-        <f t="shared" si="0"/>
-        <v>420</v>
+        <f t="shared" si="2"/>
+        <v>440</v>
       </c>
       <c r="AB8" s="25">
-        <f t="shared" si="0"/>
-        <v>427</v>
+        <f t="shared" si="2"/>
+        <v>447</v>
       </c>
       <c r="AC8" s="25">
-        <f t="shared" si="0"/>
-        <v>434</v>
+        <f t="shared" si="2"/>
+        <v>454</v>
       </c>
       <c r="AD8" s="25">
-        <f t="shared" si="0"/>
-        <v>441</v>
+        <f t="shared" si="2"/>
+        <v>461</v>
       </c>
       <c r="AE8" s="25">
-        <f t="shared" si="0"/>
-        <v>451</v>
+        <f t="shared" si="2"/>
+        <v>471</v>
       </c>
       <c r="AF8" s="25">
-        <f t="shared" si="0"/>
-        <v>458</v>
+        <f t="shared" si="2"/>
+        <v>478</v>
       </c>
       <c r="AG8" s="25">
-        <f t="shared" si="0"/>
-        <v>465</v>
+        <f t="shared" si="2"/>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
@@ -3165,6 +3165,9 @@
       <c r="E10">
         <v>20</v>
       </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="23" t="s">
@@ -3222,7 +3225,7 @@
       </c>
       <c r="C18">
         <f>SUM(B9:AG17)</f>
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ganhou/ganhou.xlsx
+++ b/excel/ganhou/ganhou.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\excel\ganhou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinch\git\AbondonedGirl\excel\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB80745D-B901-4CE2-B87B-D5846B8EA89C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD5AB8A-1607-4884-A7AF-A12394BEE127}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
+    <workbookView xWindow="-30828" yWindow="-2136" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
   <sheets>
     <sheet name="元宝計算" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>同盟ログイン</t>
     <rPh sb="0" eb="2">
@@ -414,6 +414,12 @@
   <si>
     <t>所持数予想</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闘技場順位-10</t>
+  </si>
+  <si>
+    <t>異界軍容</t>
   </si>
 </sst>
 </file>
@@ -421,21 +427,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="mm/dd\(aaa\)"/>
+    <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd\(aaa\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -552,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -579,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -594,19 +600,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -935,27 +941,27 @@
   <dimension ref="A1:AP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="29" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="40" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="40" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:42">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:42" s="4" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:42">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1299,7 +1305,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:42">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -1333,7 +1339,7 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:42">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -1347,7 +1353,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:42">
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
@@ -1380,7 +1386,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:42">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:42">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1592,7 +1598,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:42">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:42">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:42">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1760,7 +1766,7 @@
       </c>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:42">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1784,7 +1790,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:42">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1808,7 +1814,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:42">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1827,7 +1833,7 @@
       <c r="M14" s="15"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:42">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1850,7 +1856,7 @@
       </c>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:42">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -1906,7 +1912,7 @@
       <c r="M17" s="15"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -1925,7 +1931,7 @@
       <c r="M18" s="15"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1939,7 +1945,7 @@
       <c r="M19" s="15"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1953,7 +1959,7 @@
       <c r="M20" s="15"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -1966,13 +1972,13 @@
         <v>-15</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" s="10" customFormat="1">
       <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" s="2" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>29873</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
@@ -2171,11 +2177,10 @@
         <v>20990</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24:V24" si="13">I$24+J$22</f>
         <v>22493</v>
       </c>
       <c r="K24">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="J24:V24" si="13">J$24+K$22</f>
         <v>23683</v>
       </c>
       <c r="L24">
@@ -2223,7 +2228,7 @@
         <v>29873</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -2304,12 +2309,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22">
       <c r="G26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="K26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="G27" t="s">
         <v>39</v>
       </c>
@@ -2329,12 +2337,12 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2345,7 +2353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2357,7 +2365,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2365,7 +2373,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2373,7 +2381,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2381,7 +2389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2389,7 +2397,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2397,7 +2405,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2405,7 +2413,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2413,7 +2421,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2421,7 +2429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2429,7 +2437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>45</v>
       </c>
@@ -2437,7 +2445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>50</v>
       </c>
@@ -2455,22 +2463,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF44A2E-50CE-46E9-8E9A-94BBA648205D}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="7.25" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="33" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>41</v>
       </c>
@@ -2571,7 +2579,7 @@
         <v>44499</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="15" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>42</v>
       </c>
@@ -2670,7 +2678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33">
       <c r="A3" s="22" t="s">
         <v>43</v>
       </c>
@@ -2698,7 +2706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33">
       <c r="A4" s="22" t="s">
         <v>44</v>
       </c>
@@ -2710,7 +2718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33">
       <c r="A5" s="23" t="s">
         <v>45</v>
       </c>
@@ -2765,7 +2773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33">
       <c r="A6" s="23" t="s">
         <v>47</v>
       </c>
@@ -2775,7 +2783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33">
       <c r="A7" s="23" t="s">
         <v>50</v>
       </c>
@@ -2874,7 +2882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33">
       <c r="A8" s="23" t="s">
         <v>51</v>
       </c>
@@ -2894,7 +2902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2911,122 +2919,122 @@
       </c>
       <c r="E10">
         <f>D11+SUM(E2:E9)</f>
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F10">
         <f t="shared" ref="F10:T10" si="1">E11+SUM(F2:F9)</f>
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P10">
         <f t="shared" si="1"/>
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="R10">
         <f t="shared" si="1"/>
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="S10">
         <f t="shared" si="1"/>
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="T10">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="V10">
         <f t="shared" si="0"/>
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="Z10">
         <f t="shared" si="0"/>
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="AB10">
         <f t="shared" si="0"/>
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="AC10">
         <f t="shared" si="0"/>
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="AD10">
         <f t="shared" si="0"/>
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="AE10">
         <f t="shared" si="0"/>
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="AF10">
         <f t="shared" si="0"/>
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="AG10">
         <f t="shared" si="0"/>
-        <v>825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -3038,150 +3046,155 @@
       </c>
       <c r="D11">
         <f>D$10+SUM(D12:D20)</f>
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:AG11" si="2">E$10+SUM(E12:E20)</f>
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="R11">
         <f t="shared" si="2"/>
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="S11">
         <f t="shared" si="2"/>
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="T11">
         <f t="shared" si="2"/>
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="U11">
         <f t="shared" si="2"/>
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="V11">
         <f t="shared" si="2"/>
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="W11">
         <f t="shared" si="2"/>
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="X11">
         <f t="shared" si="2"/>
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="Y11">
         <f t="shared" si="2"/>
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="Z11">
         <f t="shared" si="2"/>
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="AA11">
         <f t="shared" si="2"/>
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="AB11">
         <f t="shared" si="2"/>
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="AC11">
         <f t="shared" si="2"/>
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="AD11">
         <f t="shared" si="2"/>
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="AE11">
         <f t="shared" si="2"/>
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="AF11">
         <f t="shared" si="2"/>
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="AG11">
         <f t="shared" si="2"/>
-        <v>825</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A12" s="24"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" s="24"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33">
       <c r="A14" s="24"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33">
       <c r="A15" s="24"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33">
       <c r="A16" s="24"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1">
       <c r="A17" s="24"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1">
       <c r="A18" s="24"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1">
       <c r="A19" s="24"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1">
       <c r="A20" s="24"/>
     </row>
   </sheetData>

--- a/excel/ganhou/ganhou.xlsx
+++ b/excel/ganhou/ganhou.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\excel\ganhou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinch\git\AbondonedGirl\excel\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA9F537-0517-4DFC-94D2-6E254E5F15C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E53F24-D6E9-42EC-8713-7A5F920D8837}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
   <sheets>
     <sheet name="元宝計算" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>同盟ログイン</t>
     <rPh sb="0" eb="2">
@@ -488,14 +488,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>軍武</t>
-    <rPh sb="0" eb="1">
-      <t>グン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>タケシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>群武</t>
+  </si>
+  <si>
+    <t>異教</t>
+  </si>
+  <si>
+    <t>幸運舞い込む</t>
   </si>
 </sst>
 </file>
@@ -503,21 +502,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="mm/dd\(aaa\)"/>
+    <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd\(aaa\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -634,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -658,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -673,19 +672,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1019,32 +1018,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A45119-1C6C-451A-9E0A-5F25E95013BC}">
   <dimension ref="A1:AP27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomRight" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="29" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="40" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="40" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:42">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1163,7 +1162,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:42" s="4" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:42">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1388,7 +1387,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:42">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1422,7 +1421,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:42">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1436,7 +1435,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:42">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -1469,7 +1468,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:42">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1615,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:42">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1654,34 +1653,34 @@
         <v>260</v>
       </c>
       <c r="N8" s="13">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="O8">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P8">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="Q8">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="R8">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="S8">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="T8">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="U8">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="V8">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:42">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1781,7 +1780,7 @@
       <c r="M10"/>
       <c r="N10"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:42">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1817,7 +1816,7 @@
       </c>
       <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:42">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1841,7 +1840,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:42">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1865,7 +1864,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:42">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1886,7 +1885,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:42">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1908,7 +1907,7 @@
         <v>-1500</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:42">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -1945,7 +1944,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1964,7 +1963,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -1984,10 +1983,12 @@
       <c r="L18" s="14">
         <v>60</v>
       </c>
-      <c r="M18" s="14"/>
+      <c r="M18" s="14">
+        <v>1260</v>
+      </c>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2001,7 +2002,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="13"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2015,7 +2016,7 @@
       <c r="M20" s="14"/>
       <c r="N20" s="13"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -2034,7 +2035,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" s="9" customFormat="1">
       <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
@@ -2080,46 +2081,46 @@
       </c>
       <c r="M22" s="15">
         <f t="shared" si="4"/>
-        <v>690</v>
+        <v>1950</v>
       </c>
       <c r="N22" s="15">
         <f t="shared" si="4"/>
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="O22" s="9">
         <f>SUM(O3:O21)</f>
-        <v>-810</v>
+        <v>-830</v>
       </c>
       <c r="P22" s="9">
         <f>SUM(P3:P21)</f>
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="Q22" s="9">
         <f t="shared" ref="Q22" si="5">SUM(Q3:Q21)</f>
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="R22" s="9">
         <f t="shared" ref="R22" si="6">SUM(R3:R21)</f>
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="S22" s="9">
         <f t="shared" ref="S22" si="7">SUM(S3:S21)</f>
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="T22" s="9">
         <f t="shared" ref="T22" si="8">SUM(T3:T21)</f>
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="U22" s="9">
         <f t="shared" ref="U22" si="9">SUM(U3:U21)</f>
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="V22" s="9">
         <f t="shared" ref="V22" si="10">SUM(V3:V21)</f>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.4">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="2" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
@@ -2168,46 +2169,46 @@
       </c>
       <c r="M23" s="2">
         <f t="shared" si="12"/>
-        <v>25693</v>
+        <v>26953</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="12"/>
-        <v>26283</v>
+        <v>27523</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="12"/>
-        <v>25473</v>
+        <v>26693</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="12"/>
-        <v>26163</v>
+        <v>27363</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="12"/>
-        <v>26853</v>
+        <v>28033</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="12"/>
-        <v>27543</v>
+        <v>28703</v>
       </c>
       <c r="S23" s="2">
         <f t="shared" si="12"/>
-        <v>28233</v>
+        <v>29373</v>
       </c>
       <c r="T23" s="2">
         <f t="shared" si="12"/>
-        <v>28923</v>
+        <v>30043</v>
       </c>
       <c r="U23" s="2">
         <f t="shared" si="12"/>
-        <v>29613</v>
+        <v>30713</v>
       </c>
       <c r="V23" s="2">
         <f t="shared" si="12"/>
-        <v>30303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+        <v>31383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
@@ -2243,47 +2244,46 @@
         <v>25003</v>
       </c>
       <c r="M24">
-        <f t="shared" si="13"/>
-        <v>25693</v>
+        <v>26953</v>
       </c>
       <c r="N24">
         <f t="shared" si="13"/>
-        <v>26283</v>
+        <v>27523</v>
       </c>
       <c r="O24">
         <f t="shared" si="13"/>
-        <v>25473</v>
+        <v>26693</v>
       </c>
       <c r="P24">
         <f t="shared" si="13"/>
-        <v>26163</v>
+        <v>27363</v>
       </c>
       <c r="Q24">
         <f t="shared" si="13"/>
-        <v>26853</v>
+        <v>28033</v>
       </c>
       <c r="R24">
         <f t="shared" si="13"/>
-        <v>27543</v>
+        <v>28703</v>
       </c>
       <c r="S24">
         <f t="shared" si="13"/>
-        <v>28233</v>
+        <v>29373</v>
       </c>
       <c r="T24">
         <f t="shared" si="13"/>
-        <v>28923</v>
+        <v>30043</v>
       </c>
       <c r="U24">
         <f t="shared" si="13"/>
-        <v>29613</v>
+        <v>30713</v>
       </c>
       <c r="V24">
         <f t="shared" si="13"/>
-        <v>30303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+        <v>31383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22">
       <c r="G26" t="s">
         <v>38</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22">
       <c r="G27" t="s">
         <v>39</v>
       </c>
@@ -2397,12 +2397,12 @@
       <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>45</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>50</v>
       </c>
@@ -2523,22 +2523,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF44A2E-50CE-46E9-8E9A-94BBA648205D}">
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="7.25" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="33" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>41</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>44499</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="15" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>42</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33">
       <c r="A3" s="21" t="s">
         <v>43</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33">
       <c r="A4" s="22" t="s">
         <v>47</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33">
       <c r="A5" s="22" t="s">
         <v>48</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" s="25" customFormat="1">
       <c r="A7" s="25" t="s">
         <v>49</v>
       </c>
@@ -2914,110 +2914,110 @@
       </c>
       <c r="H7" s="25">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="I7" s="25">
         <f t="shared" si="0"/>
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="K7" s="25">
         <f t="shared" si="0"/>
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="L7" s="25">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="O7" s="25">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="Q7" s="25">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="R7" s="25">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="S7" s="25">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="T7" s="25">
         <f t="shared" si="0"/>
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="U7" s="25">
         <f t="shared" ref="U7:AG7" si="1">T7+SUM(U2:U6)</f>
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="V7" s="25">
         <f t="shared" si="1"/>
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="W7" s="25">
         <f t="shared" si="1"/>
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="X7" s="25">
         <f t="shared" si="1"/>
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="Y7" s="25">
         <f t="shared" si="1"/>
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="Z7" s="25">
         <f t="shared" si="1"/>
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="AA7" s="25">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="AB7" s="25">
         <f t="shared" si="1"/>
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="AC7" s="25">
         <f t="shared" si="1"/>
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="AD7" s="25">
         <f t="shared" si="1"/>
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="AE7" s="25">
         <f t="shared" si="1"/>
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="AF7" s="25">
         <f t="shared" si="1"/>
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="AG7" s="25">
         <f t="shared" si="1"/>
-        <v>485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.4">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="25" customFormat="1">
       <c r="A8" s="25" t="s">
         <v>32</v>
       </c>
@@ -3039,115 +3039,114 @@
         <v>256</v>
       </c>
       <c r="G8" s="25">
-        <f t="shared" si="2"/>
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H8" s="25">
         <f t="shared" si="2"/>
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="I8" s="25">
         <f t="shared" si="2"/>
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="2"/>
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="K8" s="25">
         <f t="shared" si="2"/>
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="L8" s="25">
         <f t="shared" si="2"/>
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="M8" s="25">
         <f t="shared" si="2"/>
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="2"/>
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="O8" s="25">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="P8" s="25">
         <f t="shared" si="2"/>
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="Q8" s="25">
         <f t="shared" si="2"/>
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="R8" s="25">
         <f t="shared" si="2"/>
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="S8" s="25">
         <f t="shared" si="2"/>
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="T8" s="25">
         <f t="shared" si="2"/>
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="U8" s="25">
         <f t="shared" si="2"/>
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="V8" s="25">
         <f t="shared" si="2"/>
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="W8" s="25">
         <f t="shared" si="2"/>
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="X8" s="25">
         <f t="shared" si="2"/>
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="Y8" s="25">
         <f t="shared" si="2"/>
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="Z8" s="25">
         <f t="shared" si="2"/>
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="AA8" s="25">
         <f t="shared" si="2"/>
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="AB8" s="25">
         <f t="shared" si="2"/>
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="AC8" s="25">
         <f t="shared" si="2"/>
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="AD8" s="25">
         <f t="shared" si="2"/>
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="AE8" s="25">
         <f t="shared" si="2"/>
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="AF8" s="25">
         <f t="shared" si="2"/>
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="AG8" s="25">
         <f t="shared" si="2"/>
-        <v>485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="23" t="s">
         <v>50</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33">
       <c r="A10" s="23" t="s">
         <v>51</v>
       </c>
@@ -3169,7 +3168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33">
       <c r="A11" s="23" t="s">
         <v>52</v>
       </c>
@@ -3179,8 +3178,11 @@
       <c r="E11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="G11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" s="23" t="s">
         <v>55</v>
       </c>
@@ -3188,7 +3190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33">
       <c r="A13" s="23" t="s">
         <v>57</v>
       </c>
@@ -3196,7 +3198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33">
       <c r="A14" s="23" t="s">
         <v>60</v>
       </c>
@@ -3204,13 +3206,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A15" s="23"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A16" s="23"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33">
+      <c r="A15" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="23" t="s">
         <v>53</v>
       </c>
@@ -3218,14 +3230,17 @@
         <f>E8-E7-SUM(E9:E16)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>56</v>
       </c>
       <c r="C18">
         <f>SUM(B9:AG17)</f>
-        <v>169</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ganhou/ganhou.xlsx
+++ b/excel/ganhou/ganhou.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\excel\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA9F537-0517-4DFC-94D2-6E254E5F15C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24AAD36-5FC0-40F8-B08A-DF8F710B3EB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
+    <workbookView xWindow="6300" yWindow="150" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
   <sheets>
     <sheet name="元宝計算" sheetId="2" r:id="rId1"/>

--- a/excel/ganhou/ganhou.xlsx
+++ b/excel/ganhou/ganhou.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinch\git\AbondonedGirl\excel\ganhou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\excel\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E53F24-D6E9-42EC-8713-7A5F920D8837}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B0E50D-BCCD-49CA-9FC6-3A44AD4158A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
   <sheets>
     <sheet name="元宝計算" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>同盟ログイン</t>
     <rPh sb="0" eb="2">
@@ -495,6 +495,13 @@
   </si>
   <si>
     <t>幸運舞い込む</t>
+  </si>
+  <si>
+    <t>vip3購入</t>
+    <rPh sb="4" eb="6">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -502,21 +509,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="165" formatCode="mm/dd\(aaa\)"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="mm/dd\(aaa\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -633,7 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -657,7 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -672,19 +679,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1018,32 +1025,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A45119-1C6C-451A-9E0A-5F25E95013BC}">
   <dimension ref="A1:AP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="40" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="29" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="40" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1162,7 +1169,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="4" customFormat="1">
+    <row r="2" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1321,7 +1328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1387,7 +1394,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1421,7 +1428,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1435,7 +1442,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -1468,7 +1475,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1614,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1680,7 +1687,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -1746,7 +1753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1780,7 +1787,7 @@
       <c r="M10"/>
       <c r="N10"/>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1816,7 +1823,7 @@
       </c>
       <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1840,7 +1847,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1864,7 +1871,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1885,7 +1892,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1907,7 +1914,7 @@
         <v>-1500</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -1944,7 +1951,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1963,7 +1970,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -1988,7 +1995,7 @@
       </c>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2002,7 +2009,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="13"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2016,7 +2023,7 @@
       <c r="M20" s="14"/>
       <c r="N20" s="13"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -2035,7 +2042,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:22" s="9" customFormat="1">
+    <row r="22" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
@@ -2120,7 +2127,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="2" customFormat="1">
+    <row r="23" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
@@ -2208,7 +2215,7 @@
         <v>31383</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
@@ -2283,7 +2290,7 @@
         <v>31383</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -2363,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="G26" t="s">
         <v>38</v>
       </c>
@@ -2374,7 +2381,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="G27" t="s">
         <v>39</v>
       </c>
@@ -2397,12 +2404,12 @@
       <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2413,7 +2420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2425,7 +2432,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2433,7 +2440,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2441,7 +2448,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2449,7 +2456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2457,7 +2464,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2465,7 +2472,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2473,7 +2480,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2481,7 +2488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2489,7 +2496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2497,7 +2504,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>45</v>
       </c>
@@ -2505,7 +2512,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>50</v>
       </c>
@@ -2521,24 +2528,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF44A2E-50CE-46E9-8E9A-94BBA648205D}">
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="7.25" customWidth="1"/>
     <col min="3" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="33" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>41</v>
       </c>
@@ -2639,7 +2646,7 @@
         <v>44499</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1">
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
         <v>42</v>
       </c>
@@ -2738,7 +2745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="21" t="s">
         <v>43</v>
       </c>
@@ -2766,7 +2773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="22" t="s">
         <v>47</v>
       </c>
@@ -2865,7 +2872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="22" t="s">
         <v>48</v>
       </c>
@@ -2885,7 +2892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="25" customFormat="1">
+    <row r="7" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25" t="s">
         <v>49</v>
       </c>
@@ -2918,106 +2925,106 @@
       </c>
       <c r="I7" s="25">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>510</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>519</v>
       </c>
       <c r="K7" s="25">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>531</v>
       </c>
       <c r="L7" s="25">
         <f t="shared" si="0"/>
-        <v>358</v>
+        <v>538</v>
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>545</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>552</v>
       </c>
       <c r="O7" s="25">
         <f t="shared" si="0"/>
-        <v>384</v>
+        <v>564</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" si="0"/>
-        <v>391</v>
+        <v>571</v>
       </c>
       <c r="Q7" s="25">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="R7" s="25">
         <f t="shared" si="0"/>
-        <v>412</v>
+        <v>592</v>
       </c>
       <c r="S7" s="25">
         <f t="shared" si="0"/>
-        <v>419</v>
+        <v>599</v>
       </c>
       <c r="T7" s="25">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>606</v>
       </c>
       <c r="U7" s="25">
         <f t="shared" ref="U7:AG7" si="1">T7+SUM(U2:U6)</f>
-        <v>433</v>
+        <v>613</v>
       </c>
       <c r="V7" s="25">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>625</v>
       </c>
       <c r="W7" s="25">
         <f t="shared" si="1"/>
-        <v>452</v>
+        <v>632</v>
       </c>
       <c r="X7" s="25">
         <f t="shared" si="1"/>
-        <v>462</v>
+        <v>642</v>
       </c>
       <c r="Y7" s="25">
         <f t="shared" si="1"/>
-        <v>474</v>
+        <v>654</v>
       </c>
       <c r="Z7" s="25">
         <f t="shared" si="1"/>
-        <v>481</v>
+        <v>661</v>
       </c>
       <c r="AA7" s="25">
         <f t="shared" si="1"/>
-        <v>488</v>
+        <v>668</v>
       </c>
       <c r="AB7" s="25">
         <f t="shared" si="1"/>
-        <v>495</v>
+        <v>675</v>
       </c>
       <c r="AC7" s="25">
         <f t="shared" si="1"/>
-        <v>502</v>
+        <v>682</v>
       </c>
       <c r="AD7" s="25">
         <f t="shared" si="1"/>
-        <v>509</v>
+        <v>689</v>
       </c>
       <c r="AE7" s="25">
         <f t="shared" si="1"/>
-        <v>519</v>
+        <v>699</v>
       </c>
       <c r="AF7" s="25">
         <f t="shared" si="1"/>
-        <v>526</v>
+        <v>706</v>
       </c>
       <c r="AG7" s="25">
         <f t="shared" si="1"/>
-        <v>533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" s="25" customFormat="1">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25" t="s">
         <v>32</v>
       </c>
@@ -3028,14 +3035,14 @@
         <v>99</v>
       </c>
       <c r="D8" s="25">
-        <f>D$7+SUM(D9:D17)</f>
+        <f>D$7+SUM(D9:D20)</f>
         <v>134</v>
       </c>
       <c r="E8" s="25">
         <v>219</v>
       </c>
       <c r="F8" s="25">
-        <f t="shared" ref="F8:AG8" si="2">F$7+SUM(F9:F17)</f>
+        <f t="shared" ref="F8:AG8" si="2">F$7+SUM(F9:F20)</f>
         <v>256</v>
       </c>
       <c r="G8" s="25">
@@ -3043,110 +3050,110 @@
       </c>
       <c r="H8" s="25">
         <f t="shared" si="2"/>
-        <v>323</v>
+        <v>503</v>
       </c>
       <c r="I8" s="25">
         <f t="shared" si="2"/>
-        <v>330</v>
+        <v>510</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="2"/>
-        <v>339</v>
+        <v>519</v>
       </c>
       <c r="K8" s="25">
         <f t="shared" si="2"/>
-        <v>351</v>
+        <v>531</v>
       </c>
       <c r="L8" s="25">
         <f t="shared" si="2"/>
-        <v>358</v>
+        <v>538</v>
       </c>
       <c r="M8" s="25">
         <f t="shared" si="2"/>
-        <v>365</v>
+        <v>545</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="2"/>
-        <v>372</v>
+        <v>552</v>
       </c>
       <c r="O8" s="25">
         <f t="shared" si="2"/>
-        <v>384</v>
+        <v>564</v>
       </c>
       <c r="P8" s="25">
         <f t="shared" si="2"/>
-        <v>391</v>
+        <v>571</v>
       </c>
       <c r="Q8" s="25">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="R8" s="25">
         <f t="shared" si="2"/>
-        <v>412</v>
+        <v>592</v>
       </c>
       <c r="S8" s="25">
         <f t="shared" si="2"/>
-        <v>419</v>
+        <v>599</v>
       </c>
       <c r="T8" s="25">
         <f t="shared" si="2"/>
-        <v>426</v>
+        <v>606</v>
       </c>
       <c r="U8" s="25">
         <f t="shared" si="2"/>
-        <v>433</v>
+        <v>613</v>
       </c>
       <c r="V8" s="25">
         <f t="shared" si="2"/>
-        <v>445</v>
+        <v>625</v>
       </c>
       <c r="W8" s="25">
         <f t="shared" si="2"/>
-        <v>452</v>
+        <v>632</v>
       </c>
       <c r="X8" s="25">
         <f t="shared" si="2"/>
-        <v>462</v>
+        <v>642</v>
       </c>
       <c r="Y8" s="25">
         <f t="shared" si="2"/>
-        <v>474</v>
+        <v>654</v>
       </c>
       <c r="Z8" s="25">
         <f t="shared" si="2"/>
-        <v>481</v>
+        <v>661</v>
       </c>
       <c r="AA8" s="25">
         <f t="shared" si="2"/>
-        <v>488</v>
+        <v>668</v>
       </c>
       <c r="AB8" s="25">
         <f t="shared" si="2"/>
-        <v>495</v>
+        <v>675</v>
       </c>
       <c r="AC8" s="25">
         <f t="shared" si="2"/>
-        <v>502</v>
+        <v>682</v>
       </c>
       <c r="AD8" s="25">
         <f t="shared" si="2"/>
-        <v>509</v>
+        <v>689</v>
       </c>
       <c r="AE8" s="25">
         <f t="shared" si="2"/>
-        <v>519</v>
+        <v>699</v>
       </c>
       <c r="AF8" s="25">
         <f t="shared" si="2"/>
-        <v>526</v>
+        <v>706</v>
       </c>
       <c r="AG8" s="25">
         <f t="shared" si="2"/>
-        <v>533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="23" t="s">
         <v>50</v>
       </c>
@@ -3154,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="23" t="s">
         <v>51</v>
       </c>
@@ -3167,8 +3174,11 @@
       <c r="F10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="H10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="23" t="s">
         <v>52</v>
       </c>
@@ -3182,7 +3192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
         <v>55</v>
       </c>
@@ -3190,7 +3200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="23" t="s">
         <v>57</v>
       </c>
@@ -3198,7 +3208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
         <v>60</v>
       </c>
@@ -3206,15 +3216,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="23" t="s">
         <v>61</v>
       </c>
       <c r="G15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="H15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="23" t="s">
         <v>62</v>
       </c>
@@ -3222,25 +3235,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <f>E8-E7-SUM(E9:E16)</f>
         <v>10</v>
       </c>
-      <c r="G17">
+      <c r="G20">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="H20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>56</v>
       </c>
-      <c r="C18">
-        <f>SUM(B9:AG17)</f>
-        <v>250</v>
+      <c r="C21">
+        <f>SUM(B9:AG20)</f>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ganhou/ganhou.xlsx
+++ b/excel/ganhou/ganhou.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\excel\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B0E50D-BCCD-49CA-9FC6-3A44AD4158A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C058EC9-0B67-4DE2-9378-89CFC03A0A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
@@ -400,16 +400,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>百花美人</t>
-    <rPh sb="0" eb="2">
-      <t>ヒャッカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ビジン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>銀貨</t>
     <rPh sb="0" eb="2">
       <t>ギンカ</t>
@@ -494,12 +484,23 @@
     <t>異教</t>
   </si>
   <si>
-    <t>幸運舞い込む</t>
-  </si>
-  <si>
     <t>vip3購入</t>
     <rPh sb="4" eb="6">
       <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幸運舞い込む</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>百花美人ガチャ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒャッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ビジン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2375,10 +2376,10 @@
         <v>38</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.4">
@@ -2386,7 +2387,7 @@
         <v>39</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2528,10 +2529,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF44A2E-50CE-46E9-8E9A-94BBA648205D}">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2892,6 +2893,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
+    </row>
     <row r="7" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25" t="s">
         <v>49</v>
@@ -2917,7 +2935,7 @@
       </c>
       <c r="G7" s="25">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H7" s="25">
         <f t="shared" si="0"/>
@@ -2925,103 +2943,103 @@
       </c>
       <c r="I7" s="25">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="0"/>
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="K7" s="25">
         <f t="shared" si="0"/>
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="L7" s="25">
         <f t="shared" si="0"/>
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" si="0"/>
-        <v>552</v>
+        <v>515</v>
       </c>
       <c r="O7" s="25">
         <f t="shared" si="0"/>
-        <v>564</v>
+        <v>527</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" si="0"/>
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="Q7" s="25">
         <f t="shared" si="0"/>
-        <v>580</v>
+        <v>543</v>
       </c>
       <c r="R7" s="25">
         <f t="shared" si="0"/>
-        <v>592</v>
+        <v>555</v>
       </c>
       <c r="S7" s="25">
         <f t="shared" si="0"/>
-        <v>599</v>
+        <v>562</v>
       </c>
       <c r="T7" s="25">
         <f t="shared" si="0"/>
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="U7" s="25">
         <f t="shared" ref="U7:AG7" si="1">T7+SUM(U2:U6)</f>
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="V7" s="25">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>591</v>
       </c>
       <c r="W7" s="25">
         <f t="shared" si="1"/>
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="X7" s="25">
         <f t="shared" si="1"/>
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="Y7" s="25">
         <f t="shared" si="1"/>
-        <v>654</v>
+        <v>620</v>
       </c>
       <c r="Z7" s="25">
         <f t="shared" si="1"/>
-        <v>661</v>
+        <v>627</v>
       </c>
       <c r="AA7" s="25">
         <f t="shared" si="1"/>
-        <v>668</v>
+        <v>634</v>
       </c>
       <c r="AB7" s="25">
         <f t="shared" si="1"/>
-        <v>675</v>
+        <v>644</v>
       </c>
       <c r="AC7" s="25">
         <f t="shared" si="1"/>
-        <v>682</v>
+        <v>651</v>
       </c>
       <c r="AD7" s="25">
         <f t="shared" si="1"/>
-        <v>689</v>
+        <v>658</v>
       </c>
       <c r="AE7" s="25">
         <f t="shared" si="1"/>
-        <v>699</v>
+        <v>668</v>
       </c>
       <c r="AF7" s="25">
         <f t="shared" si="1"/>
-        <v>706</v>
+        <v>675</v>
       </c>
       <c r="AG7" s="25">
         <f t="shared" si="1"/>
-        <v>713</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.4">
@@ -3035,127 +3053,127 @@
         <v>99</v>
       </c>
       <c r="D8" s="25">
-        <f>D$7+SUM(D9:D20)</f>
+        <f>D$7+SUM(D9:D19)</f>
         <v>134</v>
       </c>
       <c r="E8" s="25">
         <v>219</v>
       </c>
       <c r="F8" s="25">
-        <f t="shared" ref="F8:AG8" si="2">F$7+SUM(F9:F20)</f>
+        <f>F$7+SUM(F9:F19)</f>
         <v>256</v>
       </c>
       <c r="G8" s="25">
         <v>311</v>
       </c>
       <c r="H8" s="25">
-        <f t="shared" si="2"/>
-        <v>503</v>
+        <f>H$7+SUM(H9:H19)</f>
+        <v>463</v>
       </c>
       <c r="I8" s="25">
-        <f t="shared" si="2"/>
-        <v>510</v>
+        <f>I$7+SUM(I9:I19)</f>
+        <v>470</v>
       </c>
       <c r="J8" s="25">
-        <f t="shared" si="2"/>
-        <v>519</v>
+        <f>J$7+SUM(J9:J19)</f>
+        <v>479</v>
       </c>
       <c r="K8" s="25">
-        <f t="shared" si="2"/>
-        <v>531</v>
+        <f>K$7+SUM(K9:K19)</f>
+        <v>491</v>
       </c>
       <c r="L8" s="25">
-        <f t="shared" si="2"/>
-        <v>538</v>
+        <f>L$7+SUM(L9:L19)</f>
+        <v>498</v>
       </c>
       <c r="M8" s="25">
-        <f t="shared" si="2"/>
-        <v>545</v>
+        <f>M$7+SUM(M9:M19)</f>
+        <v>505</v>
       </c>
       <c r="N8" s="25">
-        <f t="shared" si="2"/>
-        <v>552</v>
+        <f>N$7+SUM(N9:N19)</f>
+        <v>515</v>
       </c>
       <c r="O8" s="25">
-        <f t="shared" si="2"/>
-        <v>564</v>
+        <f>O$7+SUM(O9:O19)</f>
+        <v>527</v>
       </c>
       <c r="P8" s="25">
-        <f t="shared" si="2"/>
-        <v>571</v>
+        <f>P$7+SUM(P9:P19)</f>
+        <v>534</v>
       </c>
       <c r="Q8" s="25">
-        <f t="shared" si="2"/>
-        <v>580</v>
+        <f>Q$7+SUM(Q9:Q19)</f>
+        <v>543</v>
       </c>
       <c r="R8" s="25">
-        <f t="shared" si="2"/>
-        <v>592</v>
+        <f>R$7+SUM(R9:R19)</f>
+        <v>555</v>
       </c>
       <c r="S8" s="25">
-        <f t="shared" si="2"/>
-        <v>599</v>
+        <f>S$7+SUM(S9:S19)</f>
+        <v>562</v>
       </c>
       <c r="T8" s="25">
-        <f t="shared" si="2"/>
-        <v>606</v>
+        <f>T$7+SUM(T9:T19)</f>
+        <v>569</v>
       </c>
       <c r="U8" s="25">
-        <f t="shared" si="2"/>
-        <v>613</v>
+        <f>U$7+SUM(U9:U19)</f>
+        <v>579</v>
       </c>
       <c r="V8" s="25">
-        <f t="shared" si="2"/>
-        <v>625</v>
+        <f>V$7+SUM(V9:V19)</f>
+        <v>591</v>
       </c>
       <c r="W8" s="25">
-        <f t="shared" si="2"/>
-        <v>632</v>
+        <f>W$7+SUM(W9:W19)</f>
+        <v>598</v>
       </c>
       <c r="X8" s="25">
-        <f t="shared" si="2"/>
-        <v>642</v>
+        <f>X$7+SUM(X9:X19)</f>
+        <v>608</v>
       </c>
       <c r="Y8" s="25">
-        <f t="shared" si="2"/>
-        <v>654</v>
+        <f>Y$7+SUM(Y9:Y19)</f>
+        <v>620</v>
       </c>
       <c r="Z8" s="25">
-        <f t="shared" si="2"/>
-        <v>661</v>
+        <f>Z$7+SUM(Z9:Z19)</f>
+        <v>627</v>
       </c>
       <c r="AA8" s="25">
-        <f t="shared" si="2"/>
+        <f>AA$7+SUM(AA9:AA19)</f>
+        <v>634</v>
+      </c>
+      <c r="AB8" s="25">
+        <f>AB$7+SUM(AB9:AB19)</f>
+        <v>644</v>
+      </c>
+      <c r="AC8" s="25">
+        <f>AC$7+SUM(AC9:AC19)</f>
+        <v>651</v>
+      </c>
+      <c r="AD8" s="25">
+        <f>AD$7+SUM(AD9:AD19)</f>
+        <v>658</v>
+      </c>
+      <c r="AE8" s="25">
+        <f>AE$7+SUM(AE9:AE19)</f>
         <v>668</v>
       </c>
-      <c r="AB8" s="25">
-        <f t="shared" si="2"/>
+      <c r="AF8" s="25">
+        <f>AF$7+SUM(AF9:AF19)</f>
         <v>675</v>
       </c>
-      <c r="AC8" s="25">
-        <f t="shared" si="2"/>
+      <c r="AG8" s="25">
+        <f>AG$7+SUM(AG9:AG19)</f>
         <v>682</v>
-      </c>
-      <c r="AD8" s="25">
-        <f t="shared" si="2"/>
-        <v>689</v>
-      </c>
-      <c r="AE8" s="25">
-        <f t="shared" si="2"/>
-        <v>699</v>
-      </c>
-      <c r="AF8" s="25">
-        <f t="shared" si="2"/>
-        <v>706</v>
-      </c>
-      <c r="AG8" s="25">
-        <f t="shared" si="2"/>
-        <v>713</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="23" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3163,7 +3181,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3175,12 +3193,12 @@
         <v>20</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>18</v>
@@ -3194,15 +3212,18 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>33</v>
       </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>17</v>
@@ -3210,7 +3231,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -3218,7 +3239,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -3229,48 +3250,37 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17">
+        <v>61</v>
+      </c>
+      <c r="H16">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="23"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20">
-        <f>E8-E7-SUM(E9:E16)</f>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <f>E8-E7-SUM(E9:E15)</f>
         <v>10</v>
       </c>
-      <c r="G20">
+      <c r="G19">
         <v>48</v>
       </c>
-      <c r="H20">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21">
-        <f>SUM(B9:AG20)</f>
-        <v>430</v>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <f>SUM(B9:AG19)</f>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
